--- a/Shablon/MSO-X3104T.xlsx
+++ b/Shablon/MSO-X3104T.xlsx
@@ -747,7 +747,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -864,6 +864,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -873,7 +879,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1019,12 +1025,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1111,121 +1139,50 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1233,9 +1190,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1245,24 +1211,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1569,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119:F119"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109:G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1581,69 +1624,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -1657,17 +1700,17 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
@@ -1681,11 +1724,11 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="27" t="s">
         <v>98</v>
       </c>
@@ -1695,14 +1738,14 @@
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="84"/>
+      <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="32" t="s">
         <v>101</v>
       </c>
@@ -1710,27 +1753,27 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="84"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="84"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="30" t="s">
         <v>162</v>
       </c>
@@ -1738,14 +1781,14 @@
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="84"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="32" t="s">
         <v>105</v>
       </c>
@@ -1753,14 +1796,14 @@
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="84"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="27" t="s">
         <v>109</v>
       </c>
@@ -1768,14 +1811,14 @@
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="84"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="27" t="s">
         <v>108</v>
       </c>
@@ -1783,7 +1826,7 @@
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="84"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
@@ -1808,28 +1851,28 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="46" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46" t="s">
+      <c r="F19" s="56"/>
+      <c r="G19" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="56"/>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -1838,74 +1881,74 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="78" t="s">
+      <c r="E20" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70" t="s">
+      <c r="F20" s="58"/>
+      <c r="G20" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="70"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="69" t="s">
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70" t="s">
+      <c r="F21" s="58"/>
+      <c r="G21" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="70"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70" t="s">
+      <c r="F22" s="58"/>
+      <c r="G22" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="70"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="70"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="70"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1919,7 +1962,7 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>197</v>
       </c>
       <c r="B26" s="3"/>
@@ -1969,17 +2012,17 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
     </row>
     <row r="31" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -2021,277 +2064,277 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="55" t="s">
+      <c r="B34" s="71"/>
+      <c r="C34" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="56"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="63" t="s">
+      <c r="G34" s="56"/>
+      <c r="H34" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="63"/>
+      <c r="I34" s="72"/>
     </row>
     <row r="35" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52" t="s">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="52"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="57" t="s">
+      <c r="G35" s="49"/>
+      <c r="H35" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="57"/>
+      <c r="I35" s="50"/>
     </row>
     <row r="36" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53" t="s">
+      <c r="B36" s="49"/>
+      <c r="C36" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="53"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="52" t="s">
+      <c r="F36" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="57" t="s">
+      <c r="G36" s="49"/>
+      <c r="H36" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="57"/>
+      <c r="I36" s="50"/>
     </row>
     <row r="37" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="52"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52" t="s">
+      <c r="G37" s="49"/>
+      <c r="H37" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="52"/>
+      <c r="I37" s="49"/>
     </row>
     <row r="38" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="52"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52" t="s">
+      <c r="G38" s="49"/>
+      <c r="H38" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="52"/>
+      <c r="I38" s="49"/>
     </row>
     <row r="39" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53" t="s">
+      <c r="B39" s="49"/>
+      <c r="C39" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="53"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52" t="s">
+      <c r="G39" s="49"/>
+      <c r="H39" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="52"/>
+      <c r="I39" s="49"/>
     </row>
     <row r="40" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52" t="s">
+      <c r="B40" s="49"/>
+      <c r="C40" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="52"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="52" t="s">
+      <c r="F40" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52" t="s">
+      <c r="G40" s="49"/>
+      <c r="H40" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I40" s="52"/>
+      <c r="I40" s="49"/>
     </row>
     <row r="41" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52" t="s">
+      <c r="B41" s="49"/>
+      <c r="C41" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="52"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52" t="s">
+      <c r="G41" s="49"/>
+      <c r="H41" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="52"/>
+      <c r="I41" s="49"/>
     </row>
     <row r="42" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52" t="s">
+      <c r="B42" s="49"/>
+      <c r="C42" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="52"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="52" t="s">
+      <c r="F42" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52" t="s">
+      <c r="G42" s="49"/>
+      <c r="H42" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="52"/>
+      <c r="I42" s="49"/>
     </row>
     <row r="43" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52" t="s">
+      <c r="B43" s="49"/>
+      <c r="C43" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="52"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="57" t="s">
+      <c r="G43" s="49"/>
+      <c r="H43" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="I43" s="57"/>
+      <c r="I43" s="50"/>
     </row>
     <row r="44" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="52"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="53" t="s">
+      <c r="F44" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53" t="s">
+      <c r="G44" s="51"/>
+      <c r="H44" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="53"/>
+      <c r="I44" s="51"/>
     </row>
     <row r="45" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52" t="s">
+      <c r="B45" s="49"/>
+      <c r="C45" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="38" t="s">
+      <c r="D45" s="49"/>
+      <c r="E45" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="52"/>
-      <c r="H45" s="57" t="s">
+      <c r="G45" s="49"/>
+      <c r="H45" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="I45" s="57"/>
+      <c r="I45" s="50"/>
     </row>
     <row r="46" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="52"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="F46" s="52" t="s">
+      <c r="F46" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G46" s="52"/>
-      <c r="H46" s="57" t="s">
+      <c r="G46" s="49"/>
+      <c r="H46" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="I46" s="57"/>
+      <c r="I46" s="50"/>
     </row>
     <row r="47" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -2307,277 +2350,277 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="55" t="s">
+      <c r="B48" s="71"/>
+      <c r="C48" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="56"/>
+      <c r="D48" s="71"/>
       <c r="E48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="46"/>
-      <c r="H48" s="63" t="s">
+      <c r="G48" s="56"/>
+      <c r="H48" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="63"/>
+      <c r="I48" s="72"/>
     </row>
     <row r="49" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52" t="s">
+      <c r="B49" s="49"/>
+      <c r="C49" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="52"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="57" t="s">
+      <c r="G49" s="49"/>
+      <c r="H49" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I49" s="57"/>
+      <c r="I49" s="50"/>
     </row>
     <row r="50" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53" t="s">
+      <c r="B50" s="49"/>
+      <c r="C50" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="38" t="s">
+      <c r="D50" s="51"/>
+      <c r="E50" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="52" t="s">
+      <c r="F50" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="52"/>
-      <c r="H50" s="57" t="s">
+      <c r="G50" s="49"/>
+      <c r="H50" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="I50" s="57"/>
+      <c r="I50" s="50"/>
     </row>
     <row r="51" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52" t="s">
+      <c r="B51" s="49"/>
+      <c r="C51" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="38" t="s">
+      <c r="D51" s="49"/>
+      <c r="E51" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="F51" s="52" t="s">
+      <c r="F51" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52" t="s">
+      <c r="G51" s="49"/>
+      <c r="H51" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I51" s="52"/>
+      <c r="I51" s="49"/>
     </row>
     <row r="52" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52" t="s">
+      <c r="B52" s="49"/>
+      <c r="C52" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="52"/>
-      <c r="E52" s="38" t="s">
+      <c r="D52" s="49"/>
+      <c r="E52" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="F52" s="52" t="s">
+      <c r="F52" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52" t="s">
+      <c r="G52" s="49"/>
+      <c r="H52" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I52" s="52"/>
+      <c r="I52" s="49"/>
     </row>
     <row r="53" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="53" t="s">
+      <c r="B53" s="49"/>
+      <c r="C53" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="38" t="s">
+      <c r="D53" s="51"/>
+      <c r="E53" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="F53" s="52" t="s">
+      <c r="F53" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52" t="s">
+      <c r="G53" s="49"/>
+      <c r="H53" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I53" s="52"/>
+      <c r="I53" s="49"/>
     </row>
     <row r="54" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52" t="s">
+      <c r="B54" s="49"/>
+      <c r="C54" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="38" t="s">
+      <c r="D54" s="49"/>
+      <c r="E54" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52" t="s">
+      <c r="G54" s="49"/>
+      <c r="H54" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I54" s="52"/>
+      <c r="I54" s="49"/>
     </row>
     <row r="55" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52" t="s">
+      <c r="B55" s="49"/>
+      <c r="C55" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="38" t="s">
+      <c r="D55" s="49"/>
+      <c r="E55" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="52" t="s">
+      <c r="F55" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52" t="s">
+      <c r="G55" s="49"/>
+      <c r="H55" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="I55" s="52"/>
+      <c r="I55" s="49"/>
     </row>
     <row r="56" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52" t="s">
+      <c r="B56" s="49"/>
+      <c r="C56" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="38" t="s">
+      <c r="D56" s="49"/>
+      <c r="E56" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="F56" s="52" t="s">
+      <c r="F56" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52" t="s">
+      <c r="G56" s="49"/>
+      <c r="H56" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I56" s="52"/>
+      <c r="I56" s="49"/>
     </row>
     <row r="57" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52" t="s">
+      <c r="B57" s="49"/>
+      <c r="C57" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="38" t="s">
+      <c r="D57" s="49"/>
+      <c r="E57" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="52" t="s">
+      <c r="F57" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="52"/>
-      <c r="H57" s="57" t="s">
+      <c r="G57" s="49"/>
+      <c r="H57" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="57"/>
+      <c r="I57" s="50"/>
     </row>
     <row r="58" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52" t="s">
+      <c r="B58" s="49"/>
+      <c r="C58" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="52"/>
-      <c r="E58" s="38" t="s">
+      <c r="D58" s="49"/>
+      <c r="E58" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53" t="s">
+      <c r="G58" s="51"/>
+      <c r="H58" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="53"/>
+      <c r="I58" s="51"/>
     </row>
     <row r="59" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52" t="s">
+      <c r="B59" s="49"/>
+      <c r="C59" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="52"/>
-      <c r="E59" s="38" t="s">
+      <c r="D59" s="49"/>
+      <c r="E59" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F59" s="52" t="s">
+      <c r="F59" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="52"/>
-      <c r="H59" s="57" t="s">
+      <c r="G59" s="49"/>
+      <c r="H59" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="I59" s="57"/>
+      <c r="I59" s="50"/>
     </row>
     <row r="60" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="52"/>
-      <c r="C60" s="52" t="s">
+      <c r="B60" s="49"/>
+      <c r="C60" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="52"/>
-      <c r="E60" s="38" t="s">
+      <c r="D60" s="49"/>
+      <c r="E60" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="F60" s="52" t="s">
+      <c r="F60" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G60" s="52"/>
-      <c r="H60" s="57" t="s">
+      <c r="G60" s="49"/>
+      <c r="H60" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="I60" s="57"/>
+      <c r="I60" s="50"/>
     </row>
     <row r="61" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -2593,277 +2636,277 @@
       <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="55" t="s">
+      <c r="B62" s="71"/>
+      <c r="C62" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="56"/>
+      <c r="D62" s="71"/>
       <c r="E62" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="46" t="s">
+      <c r="F62" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G62" s="46"/>
-      <c r="H62" s="63" t="s">
+      <c r="G62" s="56"/>
+      <c r="H62" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="63"/>
+      <c r="I62" s="72"/>
     </row>
     <row r="63" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52" t="s">
+      <c r="B63" s="49"/>
+      <c r="C63" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="52"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="F63" s="52" t="s">
+      <c r="F63" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G63" s="52"/>
-      <c r="H63" s="57" t="s">
+      <c r="G63" s="49"/>
+      <c r="H63" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I63" s="57"/>
+      <c r="I63" s="50"/>
     </row>
     <row r="64" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="52"/>
-      <c r="C64" s="53" t="s">
+      <c r="B64" s="49"/>
+      <c r="C64" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="53"/>
-      <c r="E64" s="38" t="s">
+      <c r="D64" s="51"/>
+      <c r="E64" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F64" s="52" t="s">
+      <c r="F64" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G64" s="52"/>
-      <c r="H64" s="57" t="s">
+      <c r="G64" s="49"/>
+      <c r="H64" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="I64" s="57"/>
+      <c r="I64" s="50"/>
     </row>
     <row r="65" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52" t="s">
+      <c r="B65" s="49"/>
+      <c r="C65" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="38" t="s">
+      <c r="D65" s="49"/>
+      <c r="E65" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="52" t="s">
+      <c r="F65" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52" t="s">
+      <c r="G65" s="49"/>
+      <c r="H65" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I65" s="52"/>
+      <c r="I65" s="49"/>
     </row>
     <row r="66" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="52" t="s">
+      <c r="A66" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="52"/>
-      <c r="C66" s="52" t="s">
+      <c r="B66" s="49"/>
+      <c r="C66" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="38" t="s">
+      <c r="D66" s="49"/>
+      <c r="E66" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="F66" s="52" t="s">
+      <c r="F66" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52" t="s">
+      <c r="G66" s="49"/>
+      <c r="H66" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I66" s="52"/>
+      <c r="I66" s="49"/>
     </row>
     <row r="67" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="52" t="s">
+      <c r="A67" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="52"/>
-      <c r="C67" s="53" t="s">
+      <c r="B67" s="49"/>
+      <c r="C67" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="38" t="s">
+      <c r="D67" s="51"/>
+      <c r="E67" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="F67" s="52" t="s">
+      <c r="F67" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52" t="s">
+      <c r="G67" s="49"/>
+      <c r="H67" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I67" s="52"/>
+      <c r="I67" s="49"/>
     </row>
     <row r="68" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52" t="s">
+      <c r="B68" s="49"/>
+      <c r="C68" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="38" t="s">
+      <c r="D68" s="49"/>
+      <c r="E68" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="F68" s="52" t="s">
+      <c r="F68" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52" t="s">
+      <c r="G68" s="49"/>
+      <c r="H68" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I68" s="52"/>
+      <c r="I68" s="49"/>
     </row>
     <row r="69" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52" t="s">
+      <c r="B69" s="49"/>
+      <c r="C69" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="38" t="s">
+      <c r="D69" s="49"/>
+      <c r="E69" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="F69" s="52" t="s">
+      <c r="F69" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52" t="s">
+      <c r="G69" s="49"/>
+      <c r="H69" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="I69" s="52"/>
+      <c r="I69" s="49"/>
     </row>
     <row r="70" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52" t="s">
+      <c r="B70" s="49"/>
+      <c r="C70" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="38" t="s">
+      <c r="D70" s="49"/>
+      <c r="E70" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="52" t="s">
+      <c r="F70" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52" t="s">
+      <c r="G70" s="49"/>
+      <c r="H70" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I70" s="52"/>
+      <c r="I70" s="49"/>
     </row>
     <row r="71" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="52" t="s">
+      <c r="A71" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52" t="s">
+      <c r="B71" s="49"/>
+      <c r="C71" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="38" t="s">
+      <c r="D71" s="49"/>
+      <c r="E71" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="F71" s="52" t="s">
+      <c r="F71" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G71" s="52"/>
-      <c r="H71" s="57" t="s">
+      <c r="G71" s="49"/>
+      <c r="H71" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="I71" s="57"/>
+      <c r="I71" s="50"/>
     </row>
     <row r="72" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52" t="s">
+      <c r="B72" s="49"/>
+      <c r="C72" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="38" t="s">
+      <c r="D72" s="49"/>
+      <c r="E72" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="F72" s="53" t="s">
+      <c r="F72" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53" t="s">
+      <c r="G72" s="51"/>
+      <c r="H72" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I72" s="53"/>
+      <c r="I72" s="51"/>
     </row>
     <row r="73" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="52" t="s">
+      <c r="A73" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="52"/>
-      <c r="C73" s="52" t="s">
+      <c r="B73" s="49"/>
+      <c r="C73" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="38" t="s">
+      <c r="D73" s="49"/>
+      <c r="E73" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="F73" s="52" t="s">
+      <c r="F73" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="52"/>
-      <c r="H73" s="57" t="s">
+      <c r="G73" s="49"/>
+      <c r="H73" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="I73" s="57"/>
+      <c r="I73" s="50"/>
     </row>
     <row r="74" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="52" t="s">
+      <c r="A74" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="B74" s="52"/>
-      <c r="C74" s="52" t="s">
+      <c r="B74" s="49"/>
+      <c r="C74" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="38" t="s">
+      <c r="D74" s="49"/>
+      <c r="E74" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="F74" s="52" t="s">
+      <c r="F74" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G74" s="52"/>
-      <c r="H74" s="57" t="s">
+      <c r="G74" s="49"/>
+      <c r="H74" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="I74" s="57"/>
+      <c r="I74" s="50"/>
     </row>
     <row r="75" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
@@ -2879,277 +2922,277 @@
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="55" t="s">
+      <c r="A76" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="56"/>
-      <c r="C76" s="55" t="s">
+      <c r="B76" s="71"/>
+      <c r="C76" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="56"/>
+      <c r="D76" s="71"/>
       <c r="E76" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F76" s="46" t="s">
+      <c r="F76" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G76" s="46"/>
-      <c r="H76" s="63" t="s">
+      <c r="G76" s="56"/>
+      <c r="H76" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="I76" s="63"/>
+      <c r="I76" s="72"/>
     </row>
     <row r="77" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="52" t="s">
+      <c r="A77" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52" t="s">
+      <c r="B77" s="49"/>
+      <c r="C77" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="52"/>
+      <c r="D77" s="49"/>
       <c r="E77" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="F77" s="52" t="s">
+      <c r="F77" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G77" s="52"/>
-      <c r="H77" s="57" t="s">
+      <c r="G77" s="49"/>
+      <c r="H77" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I77" s="57"/>
+      <c r="I77" s="50"/>
     </row>
     <row r="78" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="52" t="s">
+      <c r="A78" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="52"/>
-      <c r="C78" s="53" t="s">
+      <c r="B78" s="49"/>
+      <c r="C78" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="53"/>
-      <c r="E78" s="38" t="s">
+      <c r="D78" s="51"/>
+      <c r="E78" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="F78" s="52" t="s">
+      <c r="F78" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G78" s="52"/>
-      <c r="H78" s="57" t="s">
+      <c r="G78" s="49"/>
+      <c r="H78" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="I78" s="57"/>
+      <c r="I78" s="50"/>
     </row>
     <row r="79" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52" t="s">
+      <c r="B79" s="49"/>
+      <c r="C79" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="52"/>
-      <c r="E79" s="38" t="s">
+      <c r="D79" s="49"/>
+      <c r="E79" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="F79" s="52" t="s">
+      <c r="F79" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52" t="s">
+      <c r="G79" s="49"/>
+      <c r="H79" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I79" s="52"/>
+      <c r="I79" s="49"/>
     </row>
     <row r="80" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="52" t="s">
+      <c r="A80" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="52"/>
-      <c r="C80" s="52" t="s">
+      <c r="B80" s="49"/>
+      <c r="C80" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="52"/>
-      <c r="E80" s="38" t="s">
+      <c r="D80" s="49"/>
+      <c r="E80" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="F80" s="52" t="s">
+      <c r="F80" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52" t="s">
+      <c r="G80" s="49"/>
+      <c r="H80" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="I80" s="52"/>
+      <c r="I80" s="49"/>
     </row>
     <row r="81" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="52" t="s">
+      <c r="A81" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="52"/>
-      <c r="C81" s="53" t="s">
+      <c r="B81" s="49"/>
+      <c r="C81" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="53"/>
-      <c r="E81" s="38" t="s">
+      <c r="D81" s="51"/>
+      <c r="E81" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="F81" s="52" t="s">
+      <c r="F81" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52" t="s">
+      <c r="G81" s="49"/>
+      <c r="H81" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I81" s="52"/>
+      <c r="I81" s="49"/>
     </row>
     <row r="82" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="52" t="s">
+      <c r="A82" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="52"/>
-      <c r="C82" s="52" t="s">
+      <c r="B82" s="49"/>
+      <c r="C82" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D82" s="52"/>
-      <c r="E82" s="38" t="s">
+      <c r="D82" s="49"/>
+      <c r="E82" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="F82" s="52" t="s">
+      <c r="F82" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52" t="s">
+      <c r="G82" s="49"/>
+      <c r="H82" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I82" s="52"/>
+      <c r="I82" s="49"/>
     </row>
     <row r="83" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="52" t="s">
+      <c r="A83" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52" t="s">
+      <c r="B83" s="49"/>
+      <c r="C83" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D83" s="52"/>
-      <c r="E83" s="38" t="s">
+      <c r="D83" s="49"/>
+      <c r="E83" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="F83" s="52" t="s">
+      <c r="F83" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52" t="s">
+      <c r="G83" s="49"/>
+      <c r="H83" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="I83" s="52"/>
+      <c r="I83" s="49"/>
     </row>
     <row r="84" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="52" t="s">
+      <c r="A84" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52" t="s">
+      <c r="B84" s="49"/>
+      <c r="C84" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="52"/>
-      <c r="E84" s="38" t="s">
+      <c r="D84" s="49"/>
+      <c r="E84" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="F84" s="52" t="s">
+      <c r="F84" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52" t="s">
+      <c r="G84" s="49"/>
+      <c r="H84" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I84" s="52"/>
+      <c r="I84" s="49"/>
     </row>
     <row r="85" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="52" t="s">
+      <c r="A85" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="52"/>
-      <c r="C85" s="52" t="s">
+      <c r="B85" s="49"/>
+      <c r="C85" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="52"/>
-      <c r="E85" s="38" t="s">
+      <c r="D85" s="49"/>
+      <c r="E85" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F85" s="52" t="s">
+      <c r="F85" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G85" s="52"/>
-      <c r="H85" s="57" t="s">
+      <c r="G85" s="49"/>
+      <c r="H85" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="I85" s="57"/>
+      <c r="I85" s="50"/>
     </row>
     <row r="86" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="52" t="s">
+      <c r="A86" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="52"/>
-      <c r="C86" s="52" t="s">
+      <c r="B86" s="49"/>
+      <c r="C86" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="52"/>
-      <c r="E86" s="38" t="s">
+      <c r="D86" s="49"/>
+      <c r="E86" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="F86" s="53" t="s">
+      <c r="F86" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53" t="s">
+      <c r="G86" s="51"/>
+      <c r="H86" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I86" s="53"/>
+      <c r="I86" s="51"/>
     </row>
     <row r="87" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="52" t="s">
+      <c r="A87" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52" t="s">
+      <c r="B87" s="49"/>
+      <c r="C87" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D87" s="52"/>
-      <c r="E87" s="38" t="s">
+      <c r="D87" s="49"/>
+      <c r="E87" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="F87" s="52" t="s">
+      <c r="F87" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G87" s="52"/>
-      <c r="H87" s="57" t="s">
+      <c r="G87" s="49"/>
+      <c r="H87" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="I87" s="57"/>
+      <c r="I87" s="50"/>
     </row>
     <row r="88" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="52" t="s">
+      <c r="A88" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52" t="s">
+      <c r="B88" s="49"/>
+      <c r="C88" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D88" s="52"/>
-      <c r="E88" s="38" t="s">
+      <c r="D88" s="49"/>
+      <c r="E88" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="F88" s="52" t="s">
+      <c r="F88" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G88" s="52"/>
-      <c r="H88" s="57" t="s">
+      <c r="G88" s="49"/>
+      <c r="H88" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="I88" s="57"/>
+      <c r="I88" s="50"/>
     </row>
     <row r="89" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16"/>
@@ -3163,17 +3206,17 @@
       <c r="I89" s="18"/>
     </row>
     <row r="90" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="54" t="s">
+      <c r="A90" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="54"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="69"/>
     </row>
     <row r="91" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
@@ -3187,505 +3230,515 @@
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="54" t="s">
+      <c r="A92" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="B92" s="54"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="54"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="54"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="69"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="69"/>
+      <c r="I92" s="69"/>
     </row>
     <row r="93" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="D93" s="55" t="s">
+      <c r="D93" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="E93" s="56"/>
-      <c r="F93" s="55" t="s">
+      <c r="E93" s="90"/>
+      <c r="F93" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="G93" s="56"/>
-      <c r="H93" s="46" t="s">
+      <c r="G93" s="90"/>
+      <c r="H93" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="I93" s="46"/>
-    </row>
-    <row r="94" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="61">
+      <c r="I93" s="90"/>
+    </row>
+    <row r="94" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="82"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="94"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="92"/>
+      <c r="F94" s="91"/>
+      <c r="G94" s="92"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="92"/>
+    </row>
+    <row r="95" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="83">
         <v>1</v>
       </c>
-      <c r="B94" s="58" t="s">
+      <c r="B95" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="39" t="s">
+      <c r="C95" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D94" s="41" t="s">
+      <c r="D95" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="E94" s="42"/>
-      <c r="F94" s="43" t="s">
+      <c r="E95" s="79"/>
+      <c r="F95" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="G94" s="44"/>
-      <c r="H94" s="46" t="s">
+      <c r="G95" s="88"/>
+      <c r="H95" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="I94" s="46"/>
-    </row>
-    <row r="95" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="62"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="39" t="s">
+      <c r="I95" s="56"/>
+    </row>
+    <row r="96" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="84"/>
+      <c r="B96" s="81"/>
+      <c r="C96" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="D95" s="41" t="s">
+      <c r="D96" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="E95" s="42"/>
-      <c r="F95" s="43" t="s">
+      <c r="E96" s="79"/>
+      <c r="F96" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="G95" s="44"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
-    </row>
-    <row r="96" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="61">
+      <c r="G96" s="88"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="56"/>
+    </row>
+    <row r="97" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="83">
         <v>2</v>
       </c>
-      <c r="B96" s="59"/>
-      <c r="C96" s="39" t="s">
+      <c r="B97" s="81"/>
+      <c r="C97" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D96" s="41" t="s">
+      <c r="D97" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="E96" s="42"/>
-      <c r="F96" s="43" t="s">
+      <c r="E97" s="79"/>
+      <c r="F97" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="G96" s="44"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-    </row>
-    <row r="97" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="39" t="s">
+      <c r="G97" s="88"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56"/>
+    </row>
+    <row r="98" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="84"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="D97" s="41" t="s">
+      <c r="D98" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="E97" s="42"/>
-      <c r="F97" s="43" t="s">
+      <c r="E98" s="79"/>
+      <c r="F98" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="G97" s="44"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="46"/>
-    </row>
-    <row r="98" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="61">
+      <c r="G98" s="88"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="56"/>
+    </row>
+    <row r="99" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="83">
         <v>3</v>
       </c>
-      <c r="B98" s="59"/>
-      <c r="C98" s="39" t="s">
+      <c r="B99" s="81"/>
+      <c r="C99" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D98" s="41" t="s">
+      <c r="D99" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="E98" s="42"/>
-      <c r="F98" s="43" t="s">
+      <c r="E99" s="79"/>
+      <c r="F99" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G98" s="44"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="46"/>
-    </row>
-    <row r="99" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="39" t="s">
+      <c r="G99" s="88"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="56"/>
+    </row>
+    <row r="100" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="84"/>
+      <c r="B100" s="81"/>
+      <c r="C100" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="D99" s="41" t="s">
+      <c r="D100" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="E99" s="42"/>
-      <c r="F99" s="43" t="s">
+      <c r="E100" s="79"/>
+      <c r="F100" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="G99" s="44"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="46"/>
-    </row>
-    <row r="100" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="61">
+      <c r="G100" s="88"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56"/>
+    </row>
+    <row r="101" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="83">
         <v>4</v>
       </c>
-      <c r="B100" s="59"/>
-      <c r="C100" s="39" t="s">
+      <c r="B101" s="81"/>
+      <c r="C101" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D100" s="41" t="s">
+      <c r="D101" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="E100" s="42"/>
-      <c r="F100" s="43" t="s">
+      <c r="E101" s="79"/>
+      <c r="F101" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="G100" s="44"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="46"/>
-    </row>
-    <row r="101" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="62"/>
-      <c r="B101" s="60"/>
-      <c r="C101" s="39" t="s">
+      <c r="G101" s="88"/>
+      <c r="H101" s="56"/>
+      <c r="I101" s="56"/>
+    </row>
+    <row r="102" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="84"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="D101" s="41" t="s">
+      <c r="D102" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="E101" s="42"/>
-      <c r="F101" s="43" t="s">
+      <c r="E102" s="79"/>
+      <c r="F102" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="G101" s="44"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
-    </row>
-    <row r="102" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
+      <c r="G102" s="88"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="56"/>
+    </row>
+    <row r="103" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="14" t="s">
+    <row r="104" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B104" s="46" t="s">
+      <c r="B105" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C104" s="46"/>
-      <c r="D104" s="46" t="s">
+      <c r="C105" s="56"/>
+      <c r="D105" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="E104" s="46"/>
-      <c r="F104" s="46" t="s">
+      <c r="E105" s="56"/>
+      <c r="F105" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="G104" s="46"/>
-      <c r="H104" s="49"/>
-      <c r="I104" s="49"/>
-    </row>
-    <row r="105" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="21">
-        <v>1</v>
-      </c>
-      <c r="B105" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="46"/>
-      <c r="D105" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E105" s="46"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="49"/>
-      <c r="I105" s="49"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
     </row>
     <row r="106" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
-        <v>2</v>
-      </c>
-      <c r="B106" s="46"/>
-      <c r="C106" s="46"/>
-      <c r="D106" s="46"/>
-      <c r="E106" s="46"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="49"/>
+        <v>1</v>
+      </c>
+      <c r="B106" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="56"/>
+      <c r="D106" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" s="56"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67"/>
     </row>
     <row r="107" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
-        <v>3</v>
-      </c>
-      <c r="B107" s="46"/>
-      <c r="C107" s="46"/>
-      <c r="D107" s="46"/>
-      <c r="E107" s="46"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="49"/>
-      <c r="I107" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="B107" s="56"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
     </row>
     <row r="108" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
+        <v>3</v>
+      </c>
+      <c r="B108" s="56"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="67"/>
+    </row>
+    <row r="109" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="21">
         <v>4</v>
       </c>
-      <c r="B108" s="46"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="46"/>
-      <c r="E108" s="46"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="49"/>
-      <c r="I108" s="49"/>
-    </row>
-    <row r="109" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="19"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="67"/>
     </row>
     <row r="110" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="51" t="s">
+      <c r="A110" s="19"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+    </row>
+    <row r="111" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B110" s="51"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="51"/>
-    </row>
-    <row r="111" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="19"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="68"/>
+      <c r="H111" s="68"/>
+      <c r="I111" s="68"/>
     </row>
     <row r="112" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="51" t="s">
+      <c r="A112" s="19"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+    </row>
+    <row r="113" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="B112" s="51"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="51"/>
-      <c r="I112" s="51"/>
-    </row>
-    <row r="113" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="45" t="s">
+      <c r="B113" s="68"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="68"/>
+      <c r="I113" s="68"/>
+    </row>
+    <row r="114" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B113" s="45"/>
-      <c r="C113" s="46" t="s">
+      <c r="B114" s="66"/>
+      <c r="C114" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D113" s="46"/>
-      <c r="E113" s="46" t="s">
+      <c r="D114" s="56"/>
+      <c r="E114" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46" t="s">
+      <c r="F114" s="56"/>
+      <c r="G114" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="H113" s="46"/>
-      <c r="I113" s="16"/>
-    </row>
-    <row r="114" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="45" t="s">
+      <c r="H114" s="56"/>
+      <c r="I114" s="16"/>
+    </row>
+    <row r="115" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="B114" s="45"/>
-      <c r="C114" s="45" t="s">
+      <c r="B115" s="66"/>
+      <c r="C115" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D114" s="45"/>
-      <c r="E114" s="46" t="s">
+      <c r="D115" s="66"/>
+      <c r="E115" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="F114" s="46"/>
-      <c r="G114" s="50" t="s">
+      <c r="F115" s="56"/>
+      <c r="G115" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="H114" s="50"/>
-      <c r="I114" s="16"/>
-    </row>
-    <row r="115" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="45" t="s">
+      <c r="H115" s="53"/>
+      <c r="I115" s="16"/>
+    </row>
+    <row r="116" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B115" s="45"/>
-      <c r="C115" s="45" t="s">
+      <c r="B116" s="66"/>
+      <c r="C116" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="D115" s="45"/>
-      <c r="E115" s="46" t="s">
+      <c r="D116" s="66"/>
+      <c r="E116" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="F115" s="46"/>
-      <c r="G115" s="50" t="s">
+      <c r="F116" s="56"/>
+      <c r="G116" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="H115" s="50"/>
-      <c r="I115" s="16"/>
-    </row>
-    <row r="116" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="45" t="s">
+      <c r="H116" s="53"/>
+      <c r="I116" s="16"/>
+    </row>
+    <row r="117" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="B116" s="45"/>
-      <c r="C116" s="45" t="s">
+      <c r="B117" s="66"/>
+      <c r="C117" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="D116" s="45"/>
-      <c r="E116" s="46" t="s">
+      <c r="D117" s="66"/>
+      <c r="E117" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="F116" s="46"/>
-      <c r="G116" s="50" t="s">
+      <c r="F117" s="56"/>
+      <c r="G117" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="H116" s="50"/>
-      <c r="I116" s="16"/>
-    </row>
-    <row r="117" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="47"/>
-      <c r="B117" s="47"/>
-      <c r="C117" s="48"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="48"/>
-      <c r="F117" s="48"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
+      <c r="H117" s="53"/>
       <c r="I117" s="16"/>
     </row>
     <row r="118" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="51" t="s">
+      <c r="A118" s="85"/>
+      <c r="B118" s="85"/>
+      <c r="C118" s="86"/>
+      <c r="D118" s="86"/>
+      <c r="E118" s="86"/>
+      <c r="F118" s="86"/>
+      <c r="G118" s="67"/>
+      <c r="H118" s="67"/>
+      <c r="I118" s="16"/>
+    </row>
+    <row r="119" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B118" s="51"/>
-      <c r="C118" s="51"/>
-      <c r="D118" s="51"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="51"/>
-      <c r="G118" s="51"/>
-      <c r="H118" s="51"/>
-      <c r="I118" s="51"/>
-    </row>
-    <row r="119" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="47"/>
-      <c r="B119" s="47"/>
-      <c r="C119" s="48"/>
-      <c r="D119" s="48"/>
-      <c r="E119" s="48"/>
-      <c r="F119" s="48"/>
-      <c r="G119" s="49"/>
-      <c r="H119" s="49"/>
-      <c r="I119" s="16"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="68"/>
+      <c r="H119" s="68"/>
+      <c r="I119" s="68"/>
     </row>
     <row r="120" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="B121" s="75"/>
-      <c r="C121" s="85" t="s">
-        <v>204</v>
-      </c>
-      <c r="D121" s="35"/>
-      <c r="E121" s="35"/>
-      <c r="F121" s="86"/>
+      <c r="A120" s="85"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="86"/>
+      <c r="D120" s="86"/>
+      <c r="E120" s="86"/>
+      <c r="F120" s="86"/>
+      <c r="G120" s="67"/>
+      <c r="H120" s="67"/>
+      <c r="I120" s="16"/>
+    </row>
+    <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="1:9" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="75" t="s">
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" s="45"/>
+      <c r="C122" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="B122" s="75"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="34" t="s">
+      <c r="B123" s="45"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E122" s="73" t="s">
+      <c r="E123" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="F122" s="74"/>
-      <c r="G122" s="35" t="s">
+      <c r="F123" s="47"/>
+      <c r="G123" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="H122" s="88"/>
-    </row>
-    <row r="123" spans="1:9" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="75" t="s">
+      <c r="H123" s="44"/>
+    </row>
+    <row r="124" spans="1:9" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B123" s="75"/>
-      <c r="C123" s="89" t="s">
+      <c r="B124" s="45"/>
+      <c r="C124" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D123" s="89"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-    </row>
-    <row r="124" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+    </row>
     <row r="125" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="126" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3698,97 +3751,206 @@
     <row r="134" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="135" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="136" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="313">
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G114:H114"/>
+  <mergeCells count="316">
+    <mergeCell ref="H93:I94"/>
+    <mergeCell ref="F93:G94"/>
+    <mergeCell ref="D93:E94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H95:I102"/>
+    <mergeCell ref="B95:B102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
     <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="B105:C108"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A110:I110"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="A92:I92"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="D106:E109"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C46:D46"/>
@@ -3813,206 +3975,101 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="A92:I92"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F46:G46"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I101"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="D105:E108"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="B106:C109"/>
     <mergeCell ref="A115:B115"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.35433070866141736" top="0.39370078740157483" bottom="0.4891304347826087" header="0.51181102362204722" footer="0.31496062992125984"/>

--- a/Shablon/MSO-X3104T.xlsx
+++ b/Shablon/MSO-X3104T.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="205">
   <si>
     <t>Параметр</t>
   </si>
@@ -428,9 +428,6 @@
     <t>МП 48998-12</t>
   </si>
   <si>
-    <t>Протокол поверки № ______</t>
-  </si>
-  <si>
     <t>_temp</t>
   </si>
   <si>
@@ -747,7 +744,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -868,6 +865,11 @@
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1048,11 +1050,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1156,33 +1159,123 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1190,18 +1283,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1211,105 +1295,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1614,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109:G109"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1624,69 +1625,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+    </row>
+    <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-    </row>
-    <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+    </row>
+    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+    </row>
+    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-    </row>
-    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+    </row>
+    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-    </row>
-    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -1700,17 +1701,18 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="A7" s="93" t="str">
+        <f>"Протокол поверки № 10/"&amp;C124&amp;"/"&amp;D10</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
@@ -1724,11 +1726,11 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="27" t="s">
         <v>98</v>
       </c>
@@ -1741,11 +1743,11 @@
       <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="32" t="s">
         <v>101</v>
       </c>
@@ -1756,11 +1758,11 @@
       <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -1769,13 +1771,13 @@
       <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -1784,11 +1786,11 @@
       <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="32" t="s">
         <v>105</v>
       </c>
@@ -1799,11 +1801,11 @@
       <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="27" t="s">
         <v>109</v>
       </c>
@@ -1814,11 +1816,11 @@
       <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="27" t="s">
         <v>108</v>
       </c>
@@ -1851,28 +1853,28 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56" t="s">
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56" t="s">
+      <c r="F19" s="58"/>
+      <c r="G19" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="56"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -1881,74 +1883,74 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="80"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="59"/>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="58" t="s">
+      <c r="F21" s="79"/>
+      <c r="G21" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="80"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="59"/>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59" t="s">
+      <c r="F22" s="79"/>
+      <c r="G22" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="59"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="59"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="59"/>
+      <c r="H24" s="80"/>
     </row>
     <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1963,7 +1965,7 @@
     </row>
     <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2012,17 +2014,17 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
     </row>
     <row r="31" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -2064,277 +2066,277 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="70" t="s">
+      <c r="B34" s="72"/>
+      <c r="C34" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="71"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="72" t="s">
+      <c r="G34" s="58"/>
+      <c r="H34" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="72"/>
+      <c r="I34" s="73"/>
     </row>
     <row r="35" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="49"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="64"/>
+      <c r="H35" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="67"/>
+    </row>
+    <row r="36" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="65"/>
+      <c r="E36" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="50"/>
-    </row>
-    <row r="36" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="36" t="s">
+      <c r="F36" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="64"/>
+      <c r="H36" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="67"/>
+    </row>
+    <row r="37" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="64"/>
+      <c r="E37" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="50"/>
-    </row>
-    <row r="37" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="36" t="s">
+      <c r="F37" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="64"/>
+    </row>
+    <row r="38" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="64"/>
+      <c r="E38" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="49"/>
-    </row>
-    <row r="38" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="36" t="s">
+      <c r="F38" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="64"/>
+    </row>
+    <row r="39" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="65"/>
+      <c r="E39" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="49"/>
-    </row>
-    <row r="39" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="36" t="s">
+      <c r="F39" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" s="64"/>
+    </row>
+    <row r="40" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="64"/>
+      <c r="E40" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" s="49"/>
-    </row>
-    <row r="40" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="36" t="s">
+      <c r="F40" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="64"/>
+    </row>
+    <row r="41" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="64"/>
+      <c r="E41" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="49"/>
-    </row>
-    <row r="41" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="36" t="s">
+      <c r="F41" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="64"/>
+    </row>
+    <row r="42" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="64"/>
+      <c r="E42" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" s="49"/>
-    </row>
-    <row r="42" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="36" t="s">
+      <c r="F42" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="64"/>
+    </row>
+    <row r="43" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="64"/>
+      <c r="E43" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="I42" s="49"/>
-    </row>
-    <row r="43" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="36" t="s">
+      <c r="F43" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="64"/>
+      <c r="H43" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="67"/>
+    </row>
+    <row r="44" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="64"/>
+      <c r="E44" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F43" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="I43" s="50"/>
-    </row>
-    <row r="44" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="36" t="s">
+      <c r="F44" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="65"/>
+    </row>
+    <row r="45" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="64"/>
+      <c r="E45" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" s="51"/>
-    </row>
-    <row r="45" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="37" t="s">
+      <c r="F45" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="64"/>
+      <c r="H45" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="67"/>
+    </row>
+    <row r="46" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="64"/>
+      <c r="E46" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="49"/>
-      <c r="H45" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="I45" s="50"/>
-    </row>
-    <row r="46" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49" t="s">
+      <c r="F46" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="F46" s="49" t="s">
+      <c r="G46" s="64"/>
+      <c r="H46" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="I46" s="50"/>
+      <c r="I46" s="67"/>
     </row>
     <row r="47" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -2350,277 +2352,277 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="70" t="s">
+      <c r="B48" s="72"/>
+      <c r="C48" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="71"/>
+      <c r="D48" s="72"/>
       <c r="E48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="56" t="s">
+      <c r="F48" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="56"/>
-      <c r="H48" s="72" t="s">
+      <c r="G48" s="58"/>
+      <c r="H48" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="72"/>
+      <c r="I48" s="73"/>
     </row>
     <row r="49" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="49"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="64"/>
+      <c r="H49" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" s="67"/>
+    </row>
+    <row r="50" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="64"/>
+      <c r="C50" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="65"/>
+      <c r="E50" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="50"/>
-    </row>
-    <row r="50" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="37" t="s">
+      <c r="F50" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="64"/>
+      <c r="H50" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="67"/>
+    </row>
+    <row r="51" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="64"/>
+      <c r="E51" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I50" s="50"/>
-    </row>
-    <row r="51" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="37" t="s">
+      <c r="F51" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51" s="64"/>
+    </row>
+    <row r="52" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="64"/>
+      <c r="E52" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="F51" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="I51" s="49"/>
-    </row>
-    <row r="52" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="37" t="s">
+      <c r="F52" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="64"/>
+    </row>
+    <row r="53" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="64"/>
+      <c r="C53" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="65"/>
+      <c r="E53" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="F52" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="I52" s="49"/>
-    </row>
-    <row r="53" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="37" t="s">
+      <c r="F53" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" s="64"/>
+    </row>
+    <row r="54" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="64"/>
+      <c r="E54" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="F53" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I53" s="49"/>
-    </row>
-    <row r="54" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="37" t="s">
+      <c r="F54" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="64"/>
+    </row>
+    <row r="55" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="64"/>
+      <c r="E55" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="F54" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" s="49"/>
-    </row>
-    <row r="55" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="37" t="s">
+      <c r="F55" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="64"/>
+    </row>
+    <row r="56" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="64"/>
+      <c r="E56" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="I55" s="49"/>
-    </row>
-    <row r="56" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="37" t="s">
+      <c r="F56" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" s="64"/>
+    </row>
+    <row r="57" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="64"/>
+      <c r="E57" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="F56" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="I56" s="49"/>
-    </row>
-    <row r="57" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="37" t="s">
+      <c r="F57" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="64"/>
+      <c r="H57" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" s="67"/>
+    </row>
+    <row r="58" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="64"/>
+      <c r="E58" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="G57" s="49"/>
-      <c r="H57" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="I57" s="50"/>
-    </row>
-    <row r="58" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="37" t="s">
+      <c r="F58" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" s="65"/>
+    </row>
+    <row r="59" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="64"/>
+      <c r="E59" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="F58" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" s="51"/>
-    </row>
-    <row r="59" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="49"/>
-      <c r="E59" s="37" t="s">
+      <c r="F59" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="64"/>
+      <c r="H59" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59" s="67"/>
+    </row>
+    <row r="60" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" s="64"/>
+      <c r="E60" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F59" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="I59" s="50"/>
-    </row>
-    <row r="60" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49" t="s">
+      <c r="F60" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="F60" s="49" t="s">
+      <c r="G60" s="64"/>
+      <c r="H60" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="I60" s="50"/>
+      <c r="I60" s="67"/>
     </row>
     <row r="61" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -2636,277 +2638,277 @@
       <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="70" t="s">
+      <c r="B62" s="72"/>
+      <c r="C62" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="71"/>
+      <c r="D62" s="72"/>
       <c r="E62" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="56" t="s">
+      <c r="F62" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G62" s="56"/>
-      <c r="H62" s="72" t="s">
+      <c r="G62" s="58"/>
+      <c r="H62" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="72"/>
+      <c r="I62" s="73"/>
     </row>
     <row r="63" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49" t="s">
+      <c r="B63" s="64"/>
+      <c r="C63" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="49"/>
+      <c r="D63" s="64"/>
       <c r="E63" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="64"/>
+      <c r="H63" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" s="67"/>
+    </row>
+    <row r="64" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="64"/>
+      <c r="C64" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="65"/>
+      <c r="E64" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="F63" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" s="49"/>
-      <c r="H63" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="I63" s="50"/>
-    </row>
-    <row r="64" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="37" t="s">
+      <c r="F64" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="64"/>
+      <c r="H64" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" s="67"/>
+    </row>
+    <row r="65" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="64"/>
+      <c r="E65" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F64" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="G64" s="49"/>
-      <c r="H64" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I64" s="50"/>
-    </row>
-    <row r="65" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="37" t="s">
+      <c r="F65" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I65" s="64"/>
+    </row>
+    <row r="66" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="64"/>
+      <c r="E66" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="I65" s="49"/>
-    </row>
-    <row r="66" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="37" t="s">
+      <c r="F66" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" s="64"/>
+    </row>
+    <row r="67" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="64"/>
+      <c r="C67" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="65"/>
+      <c r="E67" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="F66" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="I66" s="49"/>
-    </row>
-    <row r="67" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="49"/>
-      <c r="C67" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="51"/>
-      <c r="E67" s="37" t="s">
+      <c r="F67" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I67" s="64"/>
+    </row>
+    <row r="68" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="64"/>
+      <c r="E68" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="F67" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I67" s="49"/>
-    </row>
-    <row r="68" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="37" t="s">
+      <c r="F68" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="I68" s="64"/>
+    </row>
+    <row r="69" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="64"/>
+      <c r="E69" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="F68" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="I68" s="49"/>
-    </row>
-    <row r="69" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="49"/>
-      <c r="E69" s="37" t="s">
+      <c r="F69" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="I69" s="64"/>
+    </row>
+    <row r="70" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="64"/>
+      <c r="E70" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="F69" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="I69" s="49"/>
-    </row>
-    <row r="70" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="37" t="s">
+      <c r="F70" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="I70" s="64"/>
+    </row>
+    <row r="71" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="64"/>
+      <c r="E71" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="I70" s="49"/>
-    </row>
-    <row r="71" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="37" t="s">
+      <c r="F71" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" s="64"/>
+      <c r="H71" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="I71" s="67"/>
+    </row>
+    <row r="72" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="64"/>
+      <c r="E72" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="F71" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="G71" s="49"/>
-      <c r="H71" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="I71" s="50"/>
-    </row>
-    <row r="72" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="37" t="s">
+      <c r="F72" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="I72" s="65"/>
+    </row>
+    <row r="73" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="64"/>
+      <c r="E73" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="F72" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I72" s="51"/>
-    </row>
-    <row r="73" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" s="49"/>
-      <c r="E73" s="37" t="s">
+      <c r="F73" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="G73" s="64"/>
+      <c r="H73" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="I73" s="67"/>
+    </row>
+    <row r="74" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" s="64"/>
+      <c r="E74" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="F73" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G73" s="49"/>
-      <c r="H73" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="I73" s="50"/>
-    </row>
-    <row r="74" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49" t="s">
+      <c r="F74" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="F74" s="49" t="s">
+      <c r="G74" s="64"/>
+      <c r="H74" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="G74" s="49"/>
-      <c r="H74" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="I74" s="50"/>
+      <c r="I74" s="67"/>
     </row>
     <row r="75" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
@@ -2922,277 +2924,277 @@
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="70" t="s">
+      <c r="A76" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="71"/>
-      <c r="C76" s="70" t="s">
+      <c r="B76" s="72"/>
+      <c r="C76" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="71"/>
+      <c r="D76" s="72"/>
       <c r="E76" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F76" s="56" t="s">
+      <c r="F76" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G76" s="56"/>
-      <c r="H76" s="72" t="s">
+      <c r="G76" s="58"/>
+      <c r="H76" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I76" s="72"/>
+      <c r="I76" s="73"/>
     </row>
     <row r="77" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="49" t="s">
+      <c r="A77" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49" t="s">
+      <c r="B77" s="64"/>
+      <c r="C77" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="49"/>
+      <c r="D77" s="64"/>
       <c r="E77" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" s="64"/>
+      <c r="H77" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="I77" s="67"/>
+    </row>
+    <row r="78" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="64"/>
+      <c r="C78" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="65"/>
+      <c r="E78" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="F77" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="G77" s="49"/>
-      <c r="H77" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="I77" s="50"/>
-    </row>
-    <row r="78" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" s="49"/>
-      <c r="C78" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="51"/>
-      <c r="E78" s="37" t="s">
+      <c r="F78" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="64"/>
+      <c r="H78" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" s="67"/>
+    </row>
+    <row r="79" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="64"/>
+      <c r="E79" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="F78" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="49"/>
-      <c r="H78" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I78" s="50"/>
-    </row>
-    <row r="79" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D79" s="49"/>
-      <c r="E79" s="37" t="s">
+      <c r="F79" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I79" s="64"/>
+    </row>
+    <row r="80" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="64"/>
+      <c r="E80" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="F79" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="I79" s="49"/>
-    </row>
-    <row r="80" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D80" s="49"/>
-      <c r="E80" s="37" t="s">
+      <c r="F80" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="I80" s="64"/>
+    </row>
+    <row r="81" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="64"/>
+      <c r="C81" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="65"/>
+      <c r="E81" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="F80" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="I80" s="49"/>
-    </row>
-    <row r="81" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="49"/>
-      <c r="C81" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="51"/>
-      <c r="E81" s="37" t="s">
+      <c r="F81" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I81" s="64"/>
+    </row>
+    <row r="82" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="64"/>
+      <c r="E82" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="F81" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I81" s="49"/>
-    </row>
-    <row r="82" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" s="49"/>
-      <c r="E82" s="37" t="s">
+      <c r="F82" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="I82" s="64"/>
+    </row>
+    <row r="83" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="64"/>
+      <c r="E83" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="F82" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="I82" s="49"/>
-    </row>
-    <row r="83" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D83" s="49"/>
-      <c r="E83" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="F83" s="49" t="s">
+      <c r="F83" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49" t="s">
+      <c r="G83" s="64"/>
+      <c r="H83" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="I83" s="49"/>
+      <c r="I83" s="64"/>
     </row>
     <row r="84" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49" t="s">
+      <c r="B84" s="64"/>
+      <c r="C84" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="49"/>
+      <c r="D84" s="64"/>
       <c r="E84" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="I84" s="64"/>
+    </row>
+    <row r="85" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="64"/>
+      <c r="E85" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F85" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G85" s="64"/>
+      <c r="H85" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="I85" s="67"/>
+    </row>
+    <row r="86" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="64"/>
+      <c r="E86" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="G86" s="65"/>
+      <c r="H86" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="I86" s="65"/>
+    </row>
+    <row r="87" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="64"/>
+      <c r="E87" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="F87" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="G87" s="64"/>
+      <c r="H87" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="I87" s="67"/>
+    </row>
+    <row r="88" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="F84" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="I84" s="49"/>
-    </row>
-    <row r="85" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" s="49"/>
-      <c r="E85" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="F85" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="G85" s="49"/>
-      <c r="H85" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="I85" s="50"/>
-    </row>
-    <row r="86" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="F86" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I86" s="51"/>
-    </row>
-    <row r="87" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="49"/>
-      <c r="E87" s="37" t="s">
+      <c r="B88" s="64"/>
+      <c r="C88" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D88" s="64"/>
+      <c r="E88" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="F87" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G87" s="49"/>
-      <c r="H87" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="I87" s="50"/>
-    </row>
-    <row r="88" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49" t="s">
+      <c r="F88" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="D88" s="49"/>
-      <c r="E88" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="F88" s="49" t="s">
+      <c r="G88" s="64"/>
+      <c r="H88" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="G88" s="49"/>
-      <c r="H88" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="I88" s="50"/>
+      <c r="I88" s="67"/>
     </row>
     <row r="89" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16"/>
@@ -3206,17 +3208,17 @@
       <c r="I89" s="18"/>
     </row>
     <row r="90" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="69" t="s">
+      <c r="A90" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="69"/>
-      <c r="I90" s="69"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
     </row>
     <row r="91" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
@@ -3230,199 +3232,199 @@
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" s="13" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="66"/>
+    </row>
+    <row r="93" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93" s="46"/>
+      <c r="F93" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="G93" s="46"/>
+      <c r="H93" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="69"/>
-      <c r="I92" s="69"/>
-    </row>
-    <row r="93" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="B93" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="C93" s="93" t="s">
+      <c r="I93" s="46"/>
+    </row>
+    <row r="94" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="48"/>
+    </row>
+    <row r="95" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="69">
+        <v>1</v>
+      </c>
+      <c r="B95" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="D93" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="E93" s="90"/>
-      <c r="F93" s="89" t="s">
+      <c r="D95" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="G93" s="90"/>
-      <c r="H93" s="89" t="s">
+      <c r="E95" s="54"/>
+      <c r="F95" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="G95" s="56"/>
+      <c r="H95" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="I93" s="90"/>
-    </row>
-    <row r="94" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="82"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="94"/>
-      <c r="D94" s="91"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="91"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="91"/>
-      <c r="I94" s="92"/>
-    </row>
-    <row r="95" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="83">
-        <v>1</v>
-      </c>
-      <c r="B95" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="38" t="s">
+      <c r="I95" s="58"/>
+    </row>
+    <row r="96" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="70"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D95" s="78" t="s">
+      <c r="D96" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="E95" s="79"/>
-      <c r="F95" s="87" t="s">
+      <c r="E96" s="54"/>
+      <c r="F96" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="G95" s="88"/>
-      <c r="H95" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="I95" s="56"/>
-    </row>
-    <row r="96" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="84"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D96" s="78" t="s">
+      <c r="G96" s="56"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="58"/>
+    </row>
+    <row r="97" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="69">
+        <v>2</v>
+      </c>
+      <c r="B97" s="68"/>
+      <c r="C97" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D97" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="E96" s="79"/>
-      <c r="F96" s="87" t="s">
+      <c r="E97" s="54"/>
+      <c r="F97" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="G96" s="88"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="56"/>
-    </row>
-    <row r="97" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="83">
-        <v>2</v>
-      </c>
-      <c r="B97" s="81"/>
-      <c r="C97" s="38" t="s">
+      <c r="G97" s="56"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="58"/>
+    </row>
+    <row r="98" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="70"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D97" s="78" t="s">
+      <c r="D98" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="E97" s="79"/>
-      <c r="F97" s="87" t="s">
+      <c r="E98" s="54"/>
+      <c r="F98" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="G97" s="88"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="56"/>
-    </row>
-    <row r="98" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="84"/>
-      <c r="B98" s="81"/>
-      <c r="C98" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" s="78" t="s">
+      <c r="G98" s="56"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="58"/>
+    </row>
+    <row r="99" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="69">
+        <v>3</v>
+      </c>
+      <c r="B99" s="68"/>
+      <c r="C99" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="E98" s="79"/>
-      <c r="F98" s="87" t="s">
+      <c r="E99" s="54"/>
+      <c r="F99" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="G98" s="88"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="56"/>
-    </row>
-    <row r="99" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="83">
-        <v>3</v>
-      </c>
-      <c r="B99" s="81"/>
-      <c r="C99" s="38" t="s">
+      <c r="G99" s="56"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+    </row>
+    <row r="100" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="70"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D99" s="78" t="s">
+      <c r="D100" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="E99" s="79"/>
-      <c r="F99" s="87" t="s">
+      <c r="E100" s="54"/>
+      <c r="F100" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="G99" s="88"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="56"/>
-    </row>
-    <row r="100" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="84"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D100" s="78" t="s">
+      <c r="G100" s="56"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+    </row>
+    <row r="101" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="69">
+        <v>4</v>
+      </c>
+      <c r="B101" s="68"/>
+      <c r="C101" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="E100" s="79"/>
-      <c r="F100" s="87" t="s">
+      <c r="E101" s="54"/>
+      <c r="F101" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="G100" s="88"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-    </row>
-    <row r="101" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="83">
-        <v>4</v>
-      </c>
-      <c r="B101" s="81"/>
-      <c r="C101" s="38" t="s">
+      <c r="G101" s="56"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="58"/>
+    </row>
+    <row r="102" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="70"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D101" s="78" t="s">
+      <c r="D102" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="E101" s="79"/>
-      <c r="F101" s="87" t="s">
+      <c r="E102" s="54"/>
+      <c r="F102" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="G101" s="88"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
-    </row>
-    <row r="102" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="84"/>
-      <c r="B102" s="82"/>
-      <c r="C102" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D102" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="E102" s="79"/>
-      <c r="F102" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="G102" s="88"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="56"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="58"/>
     </row>
     <row r="103" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
@@ -3452,76 +3454,76 @@
       <c r="A105" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B105" s="56" t="s">
+      <c r="B105" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56" t="s">
+      <c r="C105" s="58"/>
+      <c r="D105" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56" t="s">
+      <c r="E105" s="58"/>
+      <c r="F105" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="G105" s="56"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
     </row>
     <row r="106" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
         <v>1</v>
       </c>
-      <c r="B106" s="56" t="s">
+      <c r="B106" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="56"/>
-      <c r="D106" s="56" t="s">
+      <c r="C106" s="58"/>
+      <c r="D106" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="E106" s="56"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="67"/>
-      <c r="I106" s="67"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="61"/>
     </row>
     <row r="107" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
         <v>2</v>
       </c>
-      <c r="B107" s="56"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="49"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="67"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="61"/>
+      <c r="I107" s="61"/>
     </row>
     <row r="108" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
         <v>3</v>
       </c>
-      <c r="B108" s="56"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="49"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="67"/>
-      <c r="I108" s="67"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
     </row>
     <row r="109" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
         <v>4</v>
       </c>
-      <c r="B109" s="56"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="67"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="61"/>
     </row>
     <row r="110" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
@@ -3535,17 +3537,17 @@
       <c r="I110" s="16"/>
     </row>
     <row r="111" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="68" t="s">
+      <c r="A111" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B111" s="68"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="68"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="68"/>
-      <c r="H111" s="68"/>
-      <c r="I111" s="68"/>
+      <c r="B111" s="63"/>
+      <c r="C111" s="63"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="63"/>
     </row>
     <row r="112" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
@@ -3559,127 +3561,127 @@
       <c r="I112" s="16"/>
     </row>
     <row r="113" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="68" t="s">
+      <c r="A113" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B113" s="68"/>
-      <c r="C113" s="68"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="68"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="68"/>
-      <c r="H113" s="68"/>
-      <c r="I113" s="68"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="63"/>
     </row>
     <row r="114" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="66" t="s">
+      <c r="A114" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B114" s="66"/>
-      <c r="C114" s="56" t="s">
+      <c r="B114" s="57"/>
+      <c r="C114" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56" t="s">
+      <c r="D114" s="58"/>
+      <c r="E114" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56" t="s">
+      <c r="F114" s="58"/>
+      <c r="G114" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="H114" s="56"/>
+      <c r="H114" s="58"/>
       <c r="I114" s="16"/>
     </row>
     <row r="115" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="66" t="s">
+      <c r="A115" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B115" s="66"/>
-      <c r="C115" s="66" t="s">
+      <c r="B115" s="57"/>
+      <c r="C115" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D115" s="66"/>
-      <c r="E115" s="56" t="s">
+      <c r="D115" s="57"/>
+      <c r="E115" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F115" s="56"/>
-      <c r="G115" s="53" t="s">
+      <c r="F115" s="58"/>
+      <c r="G115" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="H115" s="53"/>
+      <c r="H115" s="62"/>
       <c r="I115" s="16"/>
     </row>
     <row r="116" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="66" t="s">
+      <c r="A116" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B116" s="66"/>
-      <c r="C116" s="66" t="s">
+      <c r="B116" s="57"/>
+      <c r="C116" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="D116" s="66"/>
-      <c r="E116" s="56" t="s">
+      <c r="D116" s="57"/>
+      <c r="E116" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="F116" s="56"/>
-      <c r="G116" s="53" t="s">
+      <c r="F116" s="58"/>
+      <c r="G116" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="H116" s="53"/>
+      <c r="H116" s="62"/>
       <c r="I116" s="16"/>
     </row>
     <row r="117" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="66" t="s">
+      <c r="A117" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B117" s="66"/>
-      <c r="C117" s="66" t="s">
+      <c r="B117" s="57"/>
+      <c r="C117" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D117" s="66"/>
-      <c r="E117" s="56" t="s">
+      <c r="D117" s="57"/>
+      <c r="E117" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="F117" s="56"/>
-      <c r="G117" s="53" t="s">
+      <c r="F117" s="58"/>
+      <c r="G117" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="H117" s="53"/>
+      <c r="H117" s="62"/>
       <c r="I117" s="16"/>
     </row>
     <row r="118" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="85"/>
-      <c r="B118" s="85"/>
-      <c r="C118" s="86"/>
-      <c r="D118" s="86"/>
-      <c r="E118" s="86"/>
-      <c r="F118" s="86"/>
-      <c r="G118" s="67"/>
-      <c r="H118" s="67"/>
+      <c r="A118" s="59"/>
+      <c r="B118" s="59"/>
+      <c r="C118" s="60"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="60"/>
+      <c r="F118" s="60"/>
+      <c r="G118" s="61"/>
+      <c r="H118" s="61"/>
       <c r="I118" s="16"/>
     </row>
     <row r="119" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="68" t="s">
+      <c r="A119" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="B119" s="68"/>
-      <c r="C119" s="68"/>
-      <c r="D119" s="68"/>
-      <c r="E119" s="68"/>
-      <c r="F119" s="68"/>
-      <c r="G119" s="68"/>
-      <c r="H119" s="68"/>
-      <c r="I119" s="68"/>
+      <c r="B119" s="63"/>
+      <c r="C119" s="63"/>
+      <c r="D119" s="63"/>
+      <c r="E119" s="63"/>
+      <c r="F119" s="63"/>
+      <c r="G119" s="63"/>
+      <c r="H119" s="63"/>
+      <c r="I119" s="63"/>
     </row>
     <row r="120" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="85"/>
-      <c r="B120" s="85"/>
-      <c r="C120" s="86"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="67"/>
-      <c r="H120" s="67"/>
+      <c r="A120" s="59"/>
+      <c r="B120" s="59"/>
+      <c r="C120" s="60"/>
+      <c r="D120" s="60"/>
+      <c r="E120" s="60"/>
+      <c r="F120" s="60"/>
+      <c r="G120" s="61"/>
+      <c r="H120" s="61"/>
       <c r="I120" s="16"/>
     </row>
     <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3694,12 +3696,12 @@
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="45" t="s">
+      <c r="A122" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="83"/>
+      <c r="C122" s="41" t="s">
         <v>203</v>
-      </c>
-      <c r="B122" s="45"/>
-      <c r="C122" s="41" t="s">
-        <v>204</v>
       </c>
       <c r="D122" s="35"/>
       <c r="E122" s="35"/>
@@ -3708,32 +3710,32 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:9" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="B123" s="45"/>
+      <c r="A123" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="B123" s="83"/>
       <c r="C123" s="33"/>
       <c r="D123" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E123" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="E123" s="46" t="s">
+      <c r="F123" s="91"/>
+      <c r="G123" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="F123" s="47"/>
-      <c r="G123" s="35" t="s">
-        <v>118</v>
-      </c>
       <c r="H123" s="44"/>
     </row>
     <row r="124" spans="1:9" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="45" t="s">
+      <c r="A124" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124" s="83"/>
+      <c r="C124" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="B124" s="45"/>
-      <c r="C124" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="D124" s="48"/>
+      <c r="D124" s="92"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -3754,62 +3756,242 @@
     <row r="137" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="316">
-    <mergeCell ref="H93:I94"/>
-    <mergeCell ref="F93:G94"/>
-    <mergeCell ref="D93:E94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H95:I102"/>
-    <mergeCell ref="B95:B102"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="D106:E109"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="B106:C109"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="A92:I92"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="F81:G81"/>
@@ -3834,242 +4016,62 @@
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="F85:G85"/>
     <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="A92:I92"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="B106:C109"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A111:I111"/>
-    <mergeCell ref="A113:I113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H95:I102"/>
+    <mergeCell ref="B95:B102"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="D106:E109"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H93:I94"/>
+    <mergeCell ref="F93:G94"/>
+    <mergeCell ref="D93:E94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.35433070866141736" top="0.39370078740157483" bottom="0.4891304347826087" header="0.51181102362204722" footer="0.31496062992125984"/>

--- a/Shablon/MSO-X3104T.xlsx
+++ b/Shablon/MSO-X3104T.xlsx
@@ -741,7 +741,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -801,23 +801,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -831,20 +816,6 @@
     <font>
       <i/>
       <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -864,6 +835,20 @@
       <b/>
       <i/>
       <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -1058,9 +1043,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1070,31 +1055,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1116,31 +1082,15 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1149,163 +1099,87 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1314,38 +1188,128 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1655,79 +1619,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101:I108"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="10.28515625" customWidth="1"/>
+    <col min="1" max="9" width="10.28515625" style="83" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -1741,256 +1706,256 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="str">
+      <c r="A7" s="52" t="str">
         <f>"Протокол поверки № 10/"&amp;C139&amp;"/"&amp;D10</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="35"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="28" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="35"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="35"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="26" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="35"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="28" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="35"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="23" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="35"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="23" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="35"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="76" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76" t="s">
+      <c r="F19" s="36"/>
+      <c r="G19" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="76"/>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="97" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91" t="s">
+      <c r="F20" s="89"/>
+      <c r="G20" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="91"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="90" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91" t="s">
+      <c r="F21" s="89"/>
+      <c r="G21" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="91"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91" t="s">
+      <c r="F22" s="89"/>
+      <c r="G22" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="91"/>
+      <c r="H22" s="43"/>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="91"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91" t="s">
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="91"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -2004,7 +1969,7 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="26" t="s">
         <v>193</v>
       </c>
       <c r="B26" s="3"/>
@@ -2017,7 +1982,7 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="3"/>
@@ -2027,46 +1992,46 @@
       <c r="H27" s="1"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="92" t="s">
+    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-    </row>
-    <row r="31" spans="1:9" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+    </row>
+    <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -2079,7 +2044,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>197</v>
       </c>
@@ -2092,7 +2057,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
@@ -2106,301 +2071,301 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="52" t="s">
+      <c r="B34" s="56"/>
+      <c r="C34" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="59" t="s">
+      <c r="D34" s="56"/>
+      <c r="E34" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="53"/>
-      <c r="H34" s="64" t="s">
+      <c r="G34" s="56"/>
+      <c r="H34" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="65"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
     </row>
     <row r="36" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="69"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="66"/>
     </row>
     <row r="37" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70" t="s">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="32" t="s">
+      <c r="D37" s="34"/>
+      <c r="E37" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="70" t="s">
+      <c r="F37" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G37" s="70"/>
-      <c r="H37" s="71" t="s">
+      <c r="G37" s="34"/>
+      <c r="H37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="71"/>
+      <c r="I37" s="38"/>
     </row>
     <row r="38" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="83" t="s">
+      <c r="B38" s="34"/>
+      <c r="C38" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="83"/>
-      <c r="E38" s="32" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="F38" s="70" t="s">
+      <c r="F38" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="70"/>
-      <c r="H38" s="71" t="s">
+      <c r="G38" s="34"/>
+      <c r="H38" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="71"/>
+      <c r="I38" s="38"/>
     </row>
     <row r="39" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70" t="s">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="70"/>
-      <c r="E39" s="33" t="s">
+      <c r="D39" s="34"/>
+      <c r="E39" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="70" t="s">
+      <c r="F39" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70" t="s">
+      <c r="G39" s="34"/>
+      <c r="H39" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="70"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70" t="s">
+      <c r="B40" s="34"/>
+      <c r="C40" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="33" t="s">
+      <c r="D40" s="34"/>
+      <c r="E40" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="70" t="s">
+      <c r="F40" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70" t="s">
+      <c r="G40" s="34"/>
+      <c r="H40" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="70"/>
+      <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="83" t="s">
+      <c r="B41" s="34"/>
+      <c r="C41" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="83"/>
-      <c r="E41" s="33" t="s">
+      <c r="D41" s="39"/>
+      <c r="E41" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70" t="s">
+      <c r="G41" s="34"/>
+      <c r="H41" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I41" s="70"/>
+      <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70" t="s">
+      <c r="B42" s="34"/>
+      <c r="C42" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="33" t="s">
+      <c r="D42" s="34"/>
+      <c r="E42" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="70" t="s">
+      <c r="F42" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70" t="s">
+      <c r="G42" s="34"/>
+      <c r="H42" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="70"/>
+      <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70" t="s">
+      <c r="B43" s="34"/>
+      <c r="C43" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="33" t="s">
+      <c r="D43" s="34"/>
+      <c r="E43" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F43" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70" t="s">
+      <c r="G43" s="34"/>
+      <c r="H43" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="70"/>
+      <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="70" t="s">
+      <c r="A44" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70" t="s">
+      <c r="B44" s="34"/>
+      <c r="C44" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="33" t="s">
+      <c r="D44" s="34"/>
+      <c r="E44" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="70" t="s">
+      <c r="F44" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70" t="s">
+      <c r="G44" s="34"/>
+      <c r="H44" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="70"/>
+      <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="70"/>
-      <c r="E45" s="33" t="s">
+      <c r="D45" s="34"/>
+      <c r="E45" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="70" t="s">
+      <c r="F45" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="70"/>
-      <c r="H45" s="71" t="s">
+      <c r="G45" s="34"/>
+      <c r="H45" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I45" s="71"/>
+      <c r="I45" s="38"/>
     </row>
     <row r="46" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70" t="s">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="33" t="s">
+      <c r="D46" s="34"/>
+      <c r="E46" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="83" t="s">
+      <c r="F46" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83" t="s">
+      <c r="G46" s="39"/>
+      <c r="H46" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="83"/>
+      <c r="I46" s="39"/>
     </row>
     <row r="47" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="33" t="s">
+      <c r="D47" s="34"/>
+      <c r="E47" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="70"/>
-      <c r="H47" s="71" t="s">
+      <c r="G47" s="34"/>
+      <c r="H47" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="I47" s="71"/>
+      <c r="I47" s="38"/>
     </row>
     <row r="48" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70" t="s">
+      <c r="B48" s="34"/>
+      <c r="C48" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="70"/>
-      <c r="E48" s="33" t="s">
+      <c r="D48" s="34"/>
+      <c r="E48" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="70" t="s">
+      <c r="F48" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="G48" s="70"/>
-      <c r="H48" s="71" t="s">
+      <c r="G48" s="34"/>
+      <c r="H48" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="I48" s="71"/>
-    </row>
-    <row r="49" spans="1:9" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="38"/>
+    </row>
+    <row r="49" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>63</v>
       </c>
@@ -2414,301 +2379,301 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="52" t="s">
+      <c r="B50" s="56"/>
+      <c r="C50" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="59" t="s">
+      <c r="D50" s="56"/>
+      <c r="E50" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="52" t="s">
+      <c r="F50" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="53"/>
-      <c r="H50" s="64" t="s">
+      <c r="G50" s="56"/>
+      <c r="H50" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="65"/>
+      <c r="I50" s="62"/>
     </row>
     <row r="51" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="67"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="64"/>
     </row>
     <row r="52" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="69"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="66"/>
     </row>
     <row r="53" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70" t="s">
+      <c r="B53" s="34"/>
+      <c r="C53" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="33" t="s">
+      <c r="D53" s="34"/>
+      <c r="E53" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="F53" s="70" t="s">
+      <c r="F53" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G53" s="70"/>
-      <c r="H53" s="71" t="s">
+      <c r="G53" s="34"/>
+      <c r="H53" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="I53" s="71"/>
+      <c r="I53" s="38"/>
     </row>
     <row r="54" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="70"/>
-      <c r="C54" s="83" t="s">
+      <c r="B54" s="34"/>
+      <c r="C54" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="83"/>
-      <c r="E54" s="33" t="s">
+      <c r="D54" s="39"/>
+      <c r="E54" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="70" t="s">
+      <c r="F54" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="70"/>
-      <c r="H54" s="71" t="s">
+      <c r="G54" s="34"/>
+      <c r="H54" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I54" s="71"/>
+      <c r="I54" s="38"/>
     </row>
     <row r="55" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70" t="s">
+      <c r="B55" s="34"/>
+      <c r="C55" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="70"/>
-      <c r="E55" s="33" t="s">
+      <c r="D55" s="34"/>
+      <c r="E55" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="F55" s="70" t="s">
+      <c r="F55" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70" t="s">
+      <c r="G55" s="34"/>
+      <c r="H55" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I55" s="70"/>
+      <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="70" t="s">
+      <c r="A56" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70" t="s">
+      <c r="B56" s="34"/>
+      <c r="C56" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="70"/>
-      <c r="E56" s="33" t="s">
+      <c r="D56" s="34"/>
+      <c r="E56" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="F56" s="70" t="s">
+      <c r="F56" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70" t="s">
+      <c r="G56" s="34"/>
+      <c r="H56" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I56" s="70"/>
+      <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="83" t="s">
+      <c r="B57" s="34"/>
+      <c r="C57" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="83"/>
-      <c r="E57" s="33" t="s">
+      <c r="D57" s="39"/>
+      <c r="E57" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="70" t="s">
+      <c r="F57" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70" t="s">
+      <c r="G57" s="34"/>
+      <c r="H57" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I57" s="70"/>
+      <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="70" t="s">
+      <c r="A58" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70" t="s">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="70"/>
-      <c r="E58" s="33" t="s">
+      <c r="D58" s="34"/>
+      <c r="E58" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="70" t="s">
+      <c r="F58" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70" t="s">
+      <c r="G58" s="34"/>
+      <c r="H58" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I58" s="70"/>
+      <c r="I58" s="34"/>
     </row>
     <row r="59" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="70" t="s">
+      <c r="A59" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70" t="s">
+      <c r="B59" s="34"/>
+      <c r="C59" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="70"/>
-      <c r="E59" s="33" t="s">
+      <c r="D59" s="34"/>
+      <c r="E59" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="70" t="s">
+      <c r="F59" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70" t="s">
+      <c r="G59" s="34"/>
+      <c r="H59" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I59" s="70"/>
+      <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70" t="s">
+      <c r="B60" s="34"/>
+      <c r="C60" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="70"/>
-      <c r="E60" s="33" t="s">
+      <c r="D60" s="34"/>
+      <c r="E60" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="70" t="s">
+      <c r="F60" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70" t="s">
+      <c r="G60" s="34"/>
+      <c r="H60" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I60" s="70"/>
+      <c r="I60" s="34"/>
     </row>
     <row r="61" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="70" t="s">
+      <c r="A61" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70" t="s">
+      <c r="B61" s="34"/>
+      <c r="C61" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="70"/>
-      <c r="E61" s="33" t="s">
+      <c r="D61" s="34"/>
+      <c r="E61" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="F61" s="70" t="s">
+      <c r="F61" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G61" s="70"/>
-      <c r="H61" s="71" t="s">
+      <c r="G61" s="34"/>
+      <c r="H61" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I61" s="71"/>
+      <c r="I61" s="38"/>
     </row>
     <row r="62" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70" t="s">
+      <c r="B62" s="34"/>
+      <c r="C62" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="70"/>
-      <c r="E62" s="33" t="s">
+      <c r="D62" s="34"/>
+      <c r="E62" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="F62" s="83" t="s">
+      <c r="F62" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83" t="s">
+      <c r="G62" s="39"/>
+      <c r="H62" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="I62" s="83"/>
+      <c r="I62" s="39"/>
     </row>
     <row r="63" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70" t="s">
+      <c r="B63" s="34"/>
+      <c r="C63" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="70"/>
-      <c r="E63" s="33" t="s">
+      <c r="D63" s="34"/>
+      <c r="E63" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="F63" s="70" t="s">
+      <c r="F63" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G63" s="70"/>
-      <c r="H63" s="71" t="s">
+      <c r="G63" s="34"/>
+      <c r="H63" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="I63" s="71"/>
+      <c r="I63" s="38"/>
     </row>
     <row r="64" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70" t="s">
+      <c r="B64" s="34"/>
+      <c r="C64" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="70"/>
-      <c r="E64" s="33" t="s">
+      <c r="D64" s="34"/>
+      <c r="E64" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="F64" s="70" t="s">
+      <c r="F64" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="G64" s="70"/>
-      <c r="H64" s="71" t="s">
+      <c r="G64" s="34"/>
+      <c r="H64" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="I64" s="71"/>
-    </row>
-    <row r="65" spans="1:9" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="38"/>
+    </row>
+    <row r="65" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
@@ -2722,301 +2687,301 @@
       <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="52" t="s">
+      <c r="A66" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="53"/>
-      <c r="C66" s="52" t="s">
+      <c r="B66" s="56"/>
+      <c r="C66" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D66" s="53"/>
-      <c r="E66" s="59" t="s">
+      <c r="D66" s="56"/>
+      <c r="E66" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="52" t="s">
+      <c r="F66" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="53"/>
-      <c r="H66" s="64" t="s">
+      <c r="G66" s="56"/>
+      <c r="H66" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I66" s="65"/>
+      <c r="I66" s="62"/>
     </row>
     <row r="67" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="62"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="67"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="64"/>
     </row>
     <row r="68" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="69"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="66"/>
     </row>
     <row r="69" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70" t="s">
+      <c r="B69" s="34"/>
+      <c r="C69" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="70"/>
-      <c r="E69" s="33" t="s">
+      <c r="D69" s="34"/>
+      <c r="E69" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="F69" s="70" t="s">
+      <c r="F69" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G69" s="70"/>
-      <c r="H69" s="71" t="s">
+      <c r="G69" s="34"/>
+      <c r="H69" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="I69" s="71"/>
+      <c r="I69" s="38"/>
     </row>
     <row r="70" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="70"/>
-      <c r="C70" s="83" t="s">
+      <c r="B70" s="34"/>
+      <c r="C70" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="83"/>
-      <c r="E70" s="33" t="s">
+      <c r="D70" s="39"/>
+      <c r="E70" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="F70" s="70" t="s">
+      <c r="F70" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G70" s="70"/>
-      <c r="H70" s="71" t="s">
+      <c r="G70" s="34"/>
+      <c r="H70" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I70" s="71"/>
+      <c r="I70" s="38"/>
     </row>
     <row r="71" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70" t="s">
+      <c r="B71" s="34"/>
+      <c r="C71" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="70"/>
-      <c r="E71" s="33" t="s">
+      <c r="D71" s="34"/>
+      <c r="E71" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="F71" s="70" t="s">
+      <c r="F71" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70" t="s">
+      <c r="G71" s="34"/>
+      <c r="H71" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I71" s="70"/>
+      <c r="I71" s="34"/>
     </row>
     <row r="72" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70" t="s">
+      <c r="B72" s="34"/>
+      <c r="C72" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="70"/>
-      <c r="E72" s="33" t="s">
+      <c r="D72" s="34"/>
+      <c r="E72" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="F72" s="70" t="s">
+      <c r="F72" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70" t="s">
+      <c r="G72" s="34"/>
+      <c r="H72" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I72" s="70"/>
+      <c r="I72" s="34"/>
     </row>
     <row r="73" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="70" t="s">
+      <c r="A73" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="83" t="s">
+      <c r="B73" s="34"/>
+      <c r="C73" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="83"/>
-      <c r="E73" s="33" t="s">
+      <c r="D73" s="39"/>
+      <c r="E73" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="F73" s="70" t="s">
+      <c r="F73" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70" t="s">
+      <c r="G73" s="34"/>
+      <c r="H73" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I73" s="70"/>
+      <c r="I73" s="34"/>
     </row>
     <row r="74" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="70" t="s">
+      <c r="A74" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70" t="s">
+      <c r="B74" s="34"/>
+      <c r="C74" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="70"/>
-      <c r="E74" s="33" t="s">
+      <c r="D74" s="34"/>
+      <c r="E74" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="F74" s="70" t="s">
+      <c r="F74" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70" t="s">
+      <c r="G74" s="34"/>
+      <c r="H74" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I74" s="70"/>
+      <c r="I74" s="34"/>
     </row>
     <row r="75" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="70" t="s">
+      <c r="A75" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70" t="s">
+      <c r="B75" s="34"/>
+      <c r="C75" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D75" s="70"/>
-      <c r="E75" s="33" t="s">
+      <c r="D75" s="34"/>
+      <c r="E75" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="70" t="s">
+      <c r="F75" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70" t="s">
+      <c r="G75" s="34"/>
+      <c r="H75" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I75" s="70"/>
+      <c r="I75" s="34"/>
     </row>
     <row r="76" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="70" t="s">
+      <c r="A76" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70" t="s">
+      <c r="B76" s="34"/>
+      <c r="C76" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D76" s="70"/>
-      <c r="E76" s="33" t="s">
+      <c r="D76" s="34"/>
+      <c r="E76" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="70" t="s">
+      <c r="F76" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70" t="s">
+      <c r="G76" s="34"/>
+      <c r="H76" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I76" s="70"/>
+      <c r="I76" s="34"/>
     </row>
     <row r="77" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="70" t="s">
+      <c r="A77" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70" t="s">
+      <c r="B77" s="34"/>
+      <c r="C77" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="70"/>
-      <c r="E77" s="33" t="s">
+      <c r="D77" s="34"/>
+      <c r="E77" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="F77" s="70" t="s">
+      <c r="F77" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G77" s="70"/>
-      <c r="H77" s="71" t="s">
+      <c r="G77" s="34"/>
+      <c r="H77" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I77" s="71"/>
+      <c r="I77" s="38"/>
     </row>
     <row r="78" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="70" t="s">
+      <c r="A78" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70" t="s">
+      <c r="B78" s="34"/>
+      <c r="C78" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="70"/>
-      <c r="E78" s="33" t="s">
+      <c r="D78" s="34"/>
+      <c r="E78" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="83" t="s">
+      <c r="F78" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="83"/>
-      <c r="H78" s="83" t="s">
+      <c r="G78" s="39"/>
+      <c r="H78" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="I78" s="83"/>
+      <c r="I78" s="39"/>
     </row>
     <row r="79" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="70" t="s">
+      <c r="A79" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70" t="s">
+      <c r="B79" s="34"/>
+      <c r="C79" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D79" s="70"/>
-      <c r="E79" s="33" t="s">
+      <c r="D79" s="34"/>
+      <c r="E79" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="F79" s="70" t="s">
+      <c r="F79" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G79" s="70"/>
-      <c r="H79" s="71" t="s">
+      <c r="G79" s="34"/>
+      <c r="H79" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="I79" s="71"/>
+      <c r="I79" s="38"/>
     </row>
     <row r="80" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="70" t="s">
+      <c r="A80" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="70"/>
-      <c r="C80" s="70" t="s">
+      <c r="B80" s="34"/>
+      <c r="C80" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="70"/>
-      <c r="E80" s="33" t="s">
+      <c r="D80" s="34"/>
+      <c r="E80" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="F80" s="70" t="s">
+      <c r="F80" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="G80" s="70"/>
-      <c r="H80" s="71" t="s">
+      <c r="G80" s="34"/>
+      <c r="H80" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="I80" s="71"/>
-    </row>
-    <row r="81" spans="1:9" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="38"/>
+    </row>
+    <row r="81" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>65</v>
       </c>
@@ -3030,872 +2995,872 @@
       <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="52" t="s">
+      <c r="A82" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="53"/>
-      <c r="C82" s="52" t="s">
+      <c r="B82" s="56"/>
+      <c r="C82" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="53"/>
-      <c r="E82" s="59" t="s">
+      <c r="D82" s="56"/>
+      <c r="E82" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="F82" s="52" t="s">
+      <c r="F82" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G82" s="53"/>
-      <c r="H82" s="64" t="s">
+      <c r="G82" s="56"/>
+      <c r="H82" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I82" s="65"/>
+      <c r="I82" s="62"/>
     </row>
     <row r="83" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="62"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="63"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="67"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="64"/>
     </row>
     <row r="84" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="54"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="69"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="66"/>
     </row>
     <row r="85" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="70"/>
-      <c r="C85" s="70" t="s">
+      <c r="B85" s="34"/>
+      <c r="C85" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D85" s="70"/>
-      <c r="E85" s="33" t="s">
+      <c r="D85" s="34"/>
+      <c r="E85" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="F85" s="70" t="s">
+      <c r="F85" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G85" s="70"/>
-      <c r="H85" s="71" t="s">
+      <c r="G85" s="34"/>
+      <c r="H85" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="I85" s="71"/>
+      <c r="I85" s="38"/>
     </row>
     <row r="86" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="70" t="s">
+      <c r="A86" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="83" t="s">
+      <c r="B86" s="34"/>
+      <c r="C86" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D86" s="83"/>
-      <c r="E86" s="33" t="s">
+      <c r="D86" s="39"/>
+      <c r="E86" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="F86" s="70" t="s">
+      <c r="F86" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G86" s="70"/>
-      <c r="H86" s="71" t="s">
+      <c r="G86" s="34"/>
+      <c r="H86" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I86" s="71"/>
+      <c r="I86" s="38"/>
     </row>
     <row r="87" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="70" t="s">
+      <c r="A87" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70" t="s">
+      <c r="B87" s="34"/>
+      <c r="C87" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="70"/>
-      <c r="E87" s="33" t="s">
+      <c r="D87" s="34"/>
+      <c r="E87" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="F87" s="70" t="s">
+      <c r="F87" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70" t="s">
+      <c r="G87" s="34"/>
+      <c r="H87" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I87" s="70"/>
+      <c r="I87" s="34"/>
     </row>
     <row r="88" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="70" t="s">
+      <c r="A88" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="70"/>
-      <c r="C88" s="70" t="s">
+      <c r="B88" s="34"/>
+      <c r="C88" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D88" s="70"/>
-      <c r="E88" s="33" t="s">
+      <c r="D88" s="34"/>
+      <c r="E88" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="F88" s="70" t="s">
+      <c r="F88" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G88" s="70"/>
-      <c r="H88" s="70" t="s">
+      <c r="G88" s="34"/>
+      <c r="H88" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I88" s="70"/>
+      <c r="I88" s="34"/>
     </row>
     <row r="89" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="70" t="s">
+      <c r="A89" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B89" s="70"/>
-      <c r="C89" s="83" t="s">
+      <c r="B89" s="34"/>
+      <c r="C89" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D89" s="83"/>
-      <c r="E89" s="33" t="s">
+      <c r="D89" s="39"/>
+      <c r="E89" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="F89" s="70" t="s">
+      <c r="F89" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70" t="s">
+      <c r="G89" s="34"/>
+      <c r="H89" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I89" s="70"/>
+      <c r="I89" s="34"/>
     </row>
     <row r="90" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="70" t="s">
+      <c r="A90" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B90" s="70"/>
-      <c r="C90" s="70" t="s">
+      <c r="B90" s="34"/>
+      <c r="C90" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D90" s="70"/>
-      <c r="E90" s="33" t="s">
+      <c r="D90" s="34"/>
+      <c r="E90" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="F90" s="70" t="s">
+      <c r="F90" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G90" s="70"/>
-      <c r="H90" s="70" t="s">
+      <c r="G90" s="34"/>
+      <c r="H90" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I90" s="70"/>
+      <c r="I90" s="34"/>
     </row>
     <row r="91" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="70" t="s">
+      <c r="A91" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="70"/>
-      <c r="C91" s="70" t="s">
+      <c r="B91" s="34"/>
+      <c r="C91" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D91" s="70"/>
-      <c r="E91" s="33" t="s">
+      <c r="D91" s="34"/>
+      <c r="E91" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="F91" s="70" t="s">
+      <c r="F91" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70" t="s">
+      <c r="G91" s="34"/>
+      <c r="H91" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I91" s="70"/>
+      <c r="I91" s="34"/>
     </row>
     <row r="92" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="70" t="s">
+      <c r="A92" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70" t="s">
+      <c r="B92" s="34"/>
+      <c r="C92" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D92" s="70"/>
-      <c r="E92" s="33" t="s">
+      <c r="D92" s="34"/>
+      <c r="E92" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="F92" s="70" t="s">
+      <c r="F92" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70" t="s">
+      <c r="G92" s="34"/>
+      <c r="H92" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I92" s="70"/>
+      <c r="I92" s="34"/>
     </row>
     <row r="93" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="70" t="s">
+      <c r="A93" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B93" s="70"/>
-      <c r="C93" s="70" t="s">
+      <c r="B93" s="34"/>
+      <c r="C93" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D93" s="70"/>
-      <c r="E93" s="33" t="s">
+      <c r="D93" s="34"/>
+      <c r="E93" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="F93" s="70" t="s">
+      <c r="F93" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G93" s="70"/>
-      <c r="H93" s="71" t="s">
+      <c r="G93" s="34"/>
+      <c r="H93" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I93" s="71"/>
+      <c r="I93" s="38"/>
     </row>
     <row r="94" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="70" t="s">
+      <c r="A94" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B94" s="70"/>
-      <c r="C94" s="70" t="s">
+      <c r="B94" s="34"/>
+      <c r="C94" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D94" s="70"/>
-      <c r="E94" s="33" t="s">
+      <c r="D94" s="34"/>
+      <c r="E94" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="F94" s="83" t="s">
+      <c r="F94" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G94" s="83"/>
-      <c r="H94" s="83" t="s">
+      <c r="G94" s="39"/>
+      <c r="H94" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="I94" s="83"/>
+      <c r="I94" s="39"/>
     </row>
     <row r="95" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="70" t="s">
+      <c r="A95" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70" t="s">
+      <c r="B95" s="34"/>
+      <c r="C95" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D95" s="70"/>
-      <c r="E95" s="33" t="s">
+      <c r="D95" s="34"/>
+      <c r="E95" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="F95" s="70" t="s">
+      <c r="F95" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G95" s="70"/>
-      <c r="H95" s="71" t="s">
+      <c r="G95" s="34"/>
+      <c r="H95" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="I95" s="71"/>
+      <c r="I95" s="38"/>
     </row>
     <row r="96" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="70" t="s">
+      <c r="A96" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="70"/>
-      <c r="C96" s="70" t="s">
+      <c r="B96" s="34"/>
+      <c r="C96" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D96" s="70"/>
-      <c r="E96" s="33" t="s">
+      <c r="D96" s="34"/>
+      <c r="E96" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="F96" s="70" t="s">
+      <c r="F96" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="G96" s="70"/>
-      <c r="H96" s="71" t="s">
+      <c r="G96" s="34"/>
+      <c r="H96" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="I96" s="71"/>
+      <c r="I96" s="38"/>
     </row>
     <row r="97" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-    </row>
-    <row r="98" spans="1:9" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="56" t="s">
+      <c r="A97" s="30"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="B98" s="56"/>
-      <c r="C98" s="56"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="56"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="56"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
     </row>
     <row r="99" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="59" t="s">
+      <c r="A99" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="59" t="s">
+      <c r="B99" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="C99" s="57" t="s">
+      <c r="C99" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="D99" s="52" t="s">
+      <c r="D99" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="E99" s="53"/>
-      <c r="F99" s="52" t="s">
+      <c r="E99" s="56"/>
+      <c r="F99" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="G99" s="53"/>
-      <c r="H99" s="52" t="s">
+      <c r="G99" s="56"/>
+      <c r="H99" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="I99" s="53"/>
+      <c r="I99" s="56"/>
     </row>
     <row r="100" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="60"/>
-      <c r="B100" s="60"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="55"/>
+      <c r="A100" s="69"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="81"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="60"/>
     </row>
     <row r="101" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="79">
+      <c r="A101" s="76">
         <v>1</v>
       </c>
-      <c r="B101" s="59" t="s">
+      <c r="B101" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="C101" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D101" s="81" t="s">
+      <c r="D101" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="E101" s="82"/>
-      <c r="F101" s="81" t="s">
+      <c r="E101" s="92"/>
+      <c r="F101" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="G101" s="82"/>
-      <c r="H101" s="76" t="s">
+      <c r="G101" s="92"/>
+      <c r="H101" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="I101" s="76"/>
+      <c r="I101" s="36"/>
     </row>
     <row r="102" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="80"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="34" t="s">
+      <c r="A102" s="77"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D102" s="81" t="s">
+      <c r="D102" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="E102" s="82"/>
-      <c r="F102" s="81" t="s">
+      <c r="E102" s="92"/>
+      <c r="F102" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="G102" s="82"/>
-      <c r="H102" s="76"/>
-      <c r="I102" s="76"/>
+      <c r="G102" s="92"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
     </row>
     <row r="103" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="79">
+      <c r="A103" s="76">
         <v>2</v>
       </c>
-      <c r="B103" s="61"/>
-      <c r="C103" s="34" t="s">
+      <c r="B103" s="68"/>
+      <c r="C103" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D103" s="81" t="s">
+      <c r="D103" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="E103" s="82"/>
-      <c r="F103" s="81" t="s">
+      <c r="E103" s="92"/>
+      <c r="F103" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="G103" s="82"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="76"/>
+      <c r="G103" s="92"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
     </row>
     <row r="104" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="80"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="34" t="s">
+      <c r="A104" s="77"/>
+      <c r="B104" s="68"/>
+      <c r="C104" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="81" t="s">
+      <c r="D104" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="E104" s="82"/>
-      <c r="F104" s="81" t="s">
+      <c r="E104" s="92"/>
+      <c r="F104" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="G104" s="82"/>
-      <c r="H104" s="76"/>
-      <c r="I104" s="76"/>
+      <c r="G104" s="92"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
     </row>
     <row r="105" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="79">
+      <c r="A105" s="76">
         <v>3</v>
       </c>
-      <c r="B105" s="61"/>
-      <c r="C105" s="34" t="s">
+      <c r="B105" s="68"/>
+      <c r="C105" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D105" s="81" t="s">
+      <c r="D105" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="E105" s="82"/>
-      <c r="F105" s="81" t="s">
+      <c r="E105" s="92"/>
+      <c r="F105" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="G105" s="82"/>
-      <c r="H105" s="76"/>
-      <c r="I105" s="76"/>
+      <c r="G105" s="92"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
     </row>
     <row r="106" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="80"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="34" t="s">
+      <c r="A106" s="77"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D106" s="81" t="s">
+      <c r="D106" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="E106" s="82"/>
-      <c r="F106" s="81" t="s">
+      <c r="E106" s="92"/>
+      <c r="F106" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="G106" s="82"/>
-      <c r="H106" s="76"/>
-      <c r="I106" s="76"/>
+      <c r="G106" s="92"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
     </row>
     <row r="107" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="79">
+      <c r="A107" s="76">
         <v>4</v>
       </c>
-      <c r="B107" s="61"/>
-      <c r="C107" s="34" t="s">
+      <c r="B107" s="68"/>
+      <c r="C107" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D107" s="81" t="s">
+      <c r="D107" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="E107" s="82"/>
-      <c r="F107" s="81" t="s">
+      <c r="E107" s="92"/>
+      <c r="F107" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="G107" s="82"/>
-      <c r="H107" s="76"/>
-      <c r="I107" s="76"/>
+      <c r="G107" s="92"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
     </row>
     <row r="108" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="80"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="34" t="s">
+      <c r="A108" s="77"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D108" s="81" t="s">
+      <c r="D108" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="E108" s="82"/>
-      <c r="F108" s="81" t="s">
+      <c r="E108" s="92"/>
+      <c r="F108" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="G108" s="82"/>
-      <c r="H108" s="76"/>
-      <c r="I108" s="76"/>
+      <c r="G108" s="92"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
     </row>
     <row r="109" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="46"/>
-      <c r="E109" s="46"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="93"/>
+      <c r="E109" s="93"/>
+      <c r="F109" s="93"/>
+      <c r="G109" s="93"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
     </row>
     <row r="110" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="56" t="s">
+      <c r="A110" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B110" s="56"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="56"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="56"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
     </row>
     <row r="111" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="56"/>
-      <c r="B111" s="56"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="56"/>
+      <c r="A111" s="51"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="51"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="51"/>
     </row>
     <row r="112" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="56"/>
-      <c r="B112" s="56"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="56"/>
+      <c r="A112" s="51"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
     </row>
     <row r="113" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
-      <c r="B113" s="43"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
-    </row>
-    <row r="114" spans="1:9" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="8" t="s">
+      <c r="A113" s="28"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="93"/>
+      <c r="E113" s="93"/>
+      <c r="F113" s="93"/>
+      <c r="G113" s="93"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+    </row>
+    <row r="114" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="59" t="s">
+      <c r="A115" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B115" s="52" t="s">
+      <c r="B115" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="53"/>
-      <c r="D115" s="52" t="s">
+      <c r="C115" s="56"/>
+      <c r="D115" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="E115" s="53"/>
-      <c r="F115" s="52" t="s">
+      <c r="E115" s="56"/>
+      <c r="F115" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="G115" s="53"/>
-      <c r="H115" s="74"/>
-      <c r="I115" s="74"/>
+      <c r="G115" s="56"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="35"/>
     </row>
     <row r="116" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="60"/>
-      <c r="B116" s="54"/>
-      <c r="C116" s="55"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="55"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="55"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
+      <c r="A116" s="69"/>
+      <c r="B116" s="59"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="60"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="60"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
     </row>
     <row r="117" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="17">
+      <c r="A117" s="10">
         <v>1</v>
       </c>
-      <c r="B117" s="76">
+      <c r="B117" s="36">
         <v>1000</v>
       </c>
-      <c r="C117" s="76"/>
-      <c r="D117" s="76" t="s">
+      <c r="C117" s="36"/>
+      <c r="D117" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E117" s="76"/>
-      <c r="F117" s="104">
+      <c r="E117" s="36"/>
+      <c r="F117" s="94">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G117" s="104"/>
-      <c r="H117" s="74"/>
-      <c r="I117" s="74"/>
+      <c r="G117" s="94"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
     </row>
     <row r="118" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="17">
+      <c r="A118" s="10">
         <v>2</v>
       </c>
-      <c r="B118" s="76"/>
-      <c r="C118" s="76"/>
-      <c r="D118" s="76"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="104">
+      <c r="B118" s="36"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="94">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G118" s="104"/>
-      <c r="H118" s="74"/>
-      <c r="I118" s="74"/>
+      <c r="G118" s="94"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
     </row>
     <row r="119" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="17">
+      <c r="A119" s="10">
         <v>3</v>
       </c>
-      <c r="B119" s="76"/>
-      <c r="C119" s="76"/>
-      <c r="D119" s="76"/>
-      <c r="E119" s="76"/>
-      <c r="F119" s="104">
+      <c r="B119" s="36"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="94">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G119" s="104"/>
-      <c r="H119" s="74"/>
-      <c r="I119" s="74"/>
+      <c r="G119" s="94"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
     </row>
     <row r="120" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="17">
+      <c r="A120" s="10">
         <v>4</v>
       </c>
-      <c r="B120" s="76"/>
-      <c r="C120" s="76"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="76"/>
-      <c r="F120" s="104">
+      <c r="B120" s="36"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="94">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G120" s="104"/>
-      <c r="H120" s="74"/>
-      <c r="I120" s="74"/>
+      <c r="G120" s="94"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="35"/>
     </row>
     <row r="121" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="47" t="s">
+      <c r="A121" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="B121" s="47"/>
-      <c r="C121" s="47"/>
-      <c r="D121" s="47"/>
-      <c r="E121" s="47"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
-      <c r="I121" s="47"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
     </row>
     <row r="122" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="15"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
+      <c r="A122" s="28"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
     </row>
     <row r="123" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="75" t="s">
+      <c r="A123" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="B123" s="75"/>
-      <c r="C123" s="75"/>
-      <c r="D123" s="75"/>
-      <c r="E123" s="75"/>
-      <c r="F123" s="75"/>
-      <c r="G123" s="75"/>
-      <c r="H123" s="75"/>
-      <c r="I123" s="75"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="37"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
     </row>
     <row r="124" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="48" t="s">
+      <c r="A124" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B124" s="49"/>
-      <c r="C124" s="52" t="s">
+      <c r="B124" s="71"/>
+      <c r="C124" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D124" s="53"/>
-      <c r="E124" s="52" t="s">
+      <c r="D124" s="56"/>
+      <c r="E124" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="F124" s="53"/>
-      <c r="G124" s="52" t="s">
+      <c r="F124" s="56"/>
+      <c r="G124" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="H124" s="53"/>
-      <c r="I124" s="12"/>
+      <c r="H124" s="56"/>
+      <c r="I124" s="30"/>
     </row>
     <row r="125" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="77"/>
-      <c r="B125" s="78"/>
-      <c r="C125" s="62"/>
-      <c r="D125" s="63"/>
-      <c r="E125" s="62"/>
-      <c r="F125" s="63"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="63"/>
-      <c r="I125" s="40"/>
+      <c r="A125" s="74"/>
+      <c r="B125" s="75"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="58"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="58"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="58"/>
+      <c r="I125" s="30"/>
     </row>
     <row r="126" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="50"/>
-      <c r="B126" s="51"/>
-      <c r="C126" s="54"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="54"/>
-      <c r="F126" s="55"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="55"/>
-      <c r="I126" s="40"/>
+      <c r="A126" s="72"/>
+      <c r="B126" s="73"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="60"/>
+      <c r="E126" s="59"/>
+      <c r="F126" s="60"/>
+      <c r="G126" s="59"/>
+      <c r="H126" s="60"/>
+      <c r="I126" s="30"/>
     </row>
     <row r="127" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="48" t="s">
+      <c r="A127" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B127" s="49"/>
-      <c r="C127" s="48" t="s">
+      <c r="B127" s="71"/>
+      <c r="C127" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D127" s="49"/>
-      <c r="E127" s="52" t="s">
+      <c r="D127" s="71"/>
+      <c r="E127" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="F127" s="53"/>
-      <c r="G127" s="52" t="s">
+      <c r="F127" s="56"/>
+      <c r="G127" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="H127" s="53"/>
-      <c r="I127" s="44"/>
+      <c r="H127" s="56"/>
+      <c r="I127" s="30"/>
     </row>
     <row r="128" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="50"/>
-      <c r="B128" s="51"/>
-      <c r="C128" s="50"/>
-      <c r="D128" s="51"/>
-      <c r="E128" s="54"/>
-      <c r="F128" s="55"/>
-      <c r="G128" s="54"/>
-      <c r="H128" s="55"/>
-      <c r="I128" s="12"/>
+      <c r="A128" s="72"/>
+      <c r="B128" s="73"/>
+      <c r="C128" s="72"/>
+      <c r="D128" s="73"/>
+      <c r="E128" s="59"/>
+      <c r="F128" s="60"/>
+      <c r="G128" s="59"/>
+      <c r="H128" s="60"/>
+      <c r="I128" s="30"/>
     </row>
     <row r="129" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="48" t="s">
+      <c r="A129" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="B129" s="49"/>
-      <c r="C129" s="48" t="s">
+      <c r="B129" s="71"/>
+      <c r="C129" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="D129" s="49"/>
-      <c r="E129" s="52" t="s">
+      <c r="D129" s="71"/>
+      <c r="E129" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F129" s="53"/>
-      <c r="G129" s="52" t="s">
+      <c r="F129" s="56"/>
+      <c r="G129" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="H129" s="53"/>
-      <c r="I129" s="44"/>
+      <c r="H129" s="56"/>
+      <c r="I129" s="30"/>
     </row>
     <row r="130" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="50"/>
-      <c r="B130" s="51"/>
-      <c r="C130" s="50"/>
-      <c r="D130" s="51"/>
-      <c r="E130" s="54"/>
-      <c r="F130" s="55"/>
-      <c r="G130" s="54"/>
-      <c r="H130" s="55"/>
-      <c r="I130" s="12"/>
+      <c r="A130" s="72"/>
+      <c r="B130" s="73"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="73"/>
+      <c r="E130" s="59"/>
+      <c r="F130" s="60"/>
+      <c r="G130" s="59"/>
+      <c r="H130" s="60"/>
+      <c r="I130" s="30"/>
     </row>
     <row r="131" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="48" t="s">
+      <c r="A131" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="B131" s="49"/>
-      <c r="C131" s="48" t="s">
+      <c r="B131" s="71"/>
+      <c r="C131" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="D131" s="49"/>
-      <c r="E131" s="52" t="s">
+      <c r="D131" s="71"/>
+      <c r="E131" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="F131" s="53"/>
-      <c r="G131" s="52" t="s">
+      <c r="F131" s="56"/>
+      <c r="G131" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="H131" s="53"/>
-      <c r="I131" s="44"/>
+      <c r="H131" s="56"/>
+      <c r="I131" s="30"/>
     </row>
     <row r="132" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="50"/>
-      <c r="B132" s="51"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="51"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="55"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="55"/>
-      <c r="I132" s="12"/>
+      <c r="A132" s="72"/>
+      <c r="B132" s="73"/>
+      <c r="C132" s="72"/>
+      <c r="D132" s="73"/>
+      <c r="E132" s="59"/>
+      <c r="F132" s="60"/>
+      <c r="G132" s="59"/>
+      <c r="H132" s="60"/>
+      <c r="I132" s="30"/>
     </row>
     <row r="133" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="72"/>
-      <c r="B133" s="72"/>
-      <c r="C133" s="73"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="73"/>
-      <c r="F133" s="73"/>
-      <c r="G133" s="74"/>
-      <c r="H133" s="74"/>
-      <c r="I133" s="12"/>
+      <c r="A133" s="78"/>
+      <c r="B133" s="78"/>
+      <c r="C133" s="79"/>
+      <c r="D133" s="79"/>
+      <c r="E133" s="79"/>
+      <c r="F133" s="79"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="30"/>
     </row>
     <row r="134" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="75" t="s">
+      <c r="A134" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="B134" s="75"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="75"/>
-      <c r="E134" s="75"/>
-      <c r="F134" s="75"/>
-      <c r="G134" s="75"/>
-      <c r="H134" s="75"/>
-      <c r="I134" s="75"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37"/>
+      <c r="H134" s="37"/>
+      <c r="I134" s="37"/>
     </row>
     <row r="135" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="72"/>
-      <c r="B135" s="72"/>
-      <c r="C135" s="73"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="73"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="74"/>
-      <c r="I135" s="12"/>
+      <c r="A135" s="78"/>
+      <c r="B135" s="78"/>
+      <c r="C135" s="79"/>
+      <c r="D135" s="79"/>
+      <c r="E135" s="79"/>
+      <c r="F135" s="79"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="30"/>
     </row>
     <row r="136" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
@@ -3908,47 +3873,47 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="94" t="s">
+    <row r="137" spans="1:9" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="B137" s="94"/>
-      <c r="C137" s="36" t="s">
+      <c r="B137" s="40"/>
+      <c r="C137" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="37"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="24"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="94" t="s">
+    <row r="138" spans="1:9" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="B138" s="94"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="30" t="s">
+      <c r="B138" s="40"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E138" s="101" t="s">
+      <c r="E138" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="F138" s="102"/>
-      <c r="G138" s="31" t="s">
+      <c r="F138" s="50"/>
+      <c r="G138" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H138" s="39"/>
-    </row>
-    <row r="139" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="94" t="s">
+      <c r="H138" s="25"/>
+    </row>
+    <row r="139" spans="1:9" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B139" s="94"/>
-      <c r="C139" s="103" t="s">
+      <c r="B139" s="40"/>
+      <c r="C139" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="D139" s="103"/>
+      <c r="D139" s="97"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -3969,6 +3934,302 @@
     <row r="152" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="320">
+    <mergeCell ref="C127:D128"/>
+    <mergeCell ref="E131:F132"/>
+    <mergeCell ref="E129:F130"/>
+    <mergeCell ref="E127:F128"/>
+    <mergeCell ref="G131:H132"/>
+    <mergeCell ref="G129:H130"/>
+    <mergeCell ref="G127:H128"/>
+    <mergeCell ref="A110:I112"/>
+    <mergeCell ref="H99:I100"/>
+    <mergeCell ref="F99:G100"/>
+    <mergeCell ref="D99:E100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F115:G116"/>
+    <mergeCell ref="D115:E116"/>
+    <mergeCell ref="B115:C116"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="A131:B132"/>
+    <mergeCell ref="A129:B130"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="C34:D36"/>
+    <mergeCell ref="H50:I52"/>
+    <mergeCell ref="F50:G52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="C50:D52"/>
+    <mergeCell ref="A50:B52"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="A134:I134"/>
+    <mergeCell ref="A127:B128"/>
+    <mergeCell ref="C131:D132"/>
+    <mergeCell ref="C129:D130"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="D117:E120"/>
+    <mergeCell ref="G124:H126"/>
+    <mergeCell ref="E124:F126"/>
+    <mergeCell ref="C124:D126"/>
+    <mergeCell ref="A124:B126"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="H101:I108"/>
+    <mergeCell ref="B101:B108"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H82:I84"/>
+    <mergeCell ref="F82:G84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="C82:D84"/>
+    <mergeCell ref="A82:B84"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H66:I68"/>
+    <mergeCell ref="F66:G68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="C66:D68"/>
+    <mergeCell ref="A66:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A34:B36"/>
+    <mergeCell ref="H34:I36"/>
+    <mergeCell ref="F34:G36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
     <mergeCell ref="C139:D139"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A45:B45"/>
@@ -3993,302 +4254,6 @@
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A34:B36"/>
-    <mergeCell ref="H34:I36"/>
-    <mergeCell ref="F34:G36"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H66:I68"/>
-    <mergeCell ref="F66:G68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="C66:D68"/>
-    <mergeCell ref="A66:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H82:I84"/>
-    <mergeCell ref="F82:G84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="C82:D84"/>
-    <mergeCell ref="A82:B84"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A127:B128"/>
-    <mergeCell ref="C131:D132"/>
-    <mergeCell ref="C129:D130"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="D117:E120"/>
-    <mergeCell ref="G124:H126"/>
-    <mergeCell ref="E124:F126"/>
-    <mergeCell ref="C124:D126"/>
-    <mergeCell ref="A124:B126"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="H101:I108"/>
-    <mergeCell ref="B101:B108"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="A134:I134"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="C34:D36"/>
-    <mergeCell ref="H50:I52"/>
-    <mergeCell ref="F50:G52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="C50:D52"/>
-    <mergeCell ref="A50:B52"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C127:D128"/>
-    <mergeCell ref="E131:F132"/>
-    <mergeCell ref="E129:F130"/>
-    <mergeCell ref="E127:F128"/>
-    <mergeCell ref="G131:H132"/>
-    <mergeCell ref="G129:H130"/>
-    <mergeCell ref="G127:H128"/>
-    <mergeCell ref="A110:I112"/>
-    <mergeCell ref="H99:I100"/>
-    <mergeCell ref="F99:G100"/>
-    <mergeCell ref="D99:E100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F115:G116"/>
-    <mergeCell ref="D115:E116"/>
-    <mergeCell ref="B115:C116"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="A131:B132"/>
-    <mergeCell ref="A129:B130"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.35433070866141736" top="0.39370078740157483" bottom="0.4891304347826087" header="0.51181102362204722" footer="0.31496062992125984"/>
